--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.31</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.064</v>
+        <v>27.547</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.554</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.177</v>
+        <v>30.688</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.531</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.238</v>
+        <v>27.077</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.24943896634573</v>
+        <v>26.70719684526841</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.21459630958315</v>
+        <v>26.70719687787318</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.72044854026838</v>
+        <v>26.70719688869164</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10.60956516424964</v>
+        <v>26.70719684344224</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.27783167470452</v>
+        <v>26.70719688036422</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.38142611715548</v>
+        <v>26.70719689261515</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.23110315058797</v>
+        <v>26.70719685449022</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.27832689951234</v>
+        <v>26.7071968873983</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.82065166470919</v>
+        <v>26.70719689831739</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.04202041574628</v>
+        <v>26.70719690064078</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.09211267390572</v>
+        <v>26.7071969171404</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.31955639203451</v>
+        <v>26.70719692285534</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.15992198460802</v>
+        <v>26.7071968763141</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>34.30594019834528</v>
+        <v>26.70719691595828</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.59676751842365</v>
+        <v>26.7071969288973</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.9191936797836</v>
+        <v>26.70719689713549</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>31.28473750814802</v>
+        <v>26.7071969341133</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.01994855388104</v>
+        <v>26.70719694610237</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.33003675571385</v>
+        <v>26.70719689426515</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.7182750272033</v>
+        <v>26.7071969361392</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35.21307441339452</v>
+        <v>26.70719694971575</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.47251323242835</v>
+        <v>26.70719690920838</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>34.94064426526077</v>
+        <v>26.70719694653017</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>40.72091771923946</v>
+        <v>26.70719695863078</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.58866143010358</v>
+        <v>26.70719695804753</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.81029048420282</v>
+        <v>26.70719697733839</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>49.75309870333616</v>
+        <v>26.70719698374741</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>23.01576495047875</v>
+        <v>26.7071969292552</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.83807177526067</v>
+        <v>26.70719697487427</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>49.48704685553056</v>
+        <v>26.70719698909068</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.57680227365474</v>
+        <v>26.70719693998718</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.06749805081665</v>
+        <v>26.70719697643862</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.03613243628443</v>
+        <v>26.70719698853752</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.24232686623291</v>
+        <v>26.70719693771898</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.90408843222988</v>
+        <v>26.70719697899696</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>42.66314550007574</v>
+        <v>26.70719699269788</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.54758874181683</v>
+        <v>26.70719695397375</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.15051092035833</v>
+        <v>26.70719699076427</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>49.16554326413576</v>
+        <v>26.70719700297572</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>46.67898008861589</v>
+        <v>26.70719700031309</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>55.32975289849539</v>
+        <v>26.70719701921039</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>59.66062274477306</v>
+        <v>26.70719702526227</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>30.84282995329884</v>
+        <v>26.70719697073358</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>51.03685944851024</v>
+        <v>26.70719701552527</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>59.01046465669397</v>
+        <v>26.70719702988857</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>15.41143256414939</v>
+        <v>26.70719684483592</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.48833708828113</v>
+        <v>26.7071968780949</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>33.59942972329847</v>
+        <v>26.70719688862035</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>12.92773377900393</v>
+        <v>26.70719684277746</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.85551237493139</v>
+        <v>26.70719688044026</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.5115419111381</v>
+        <v>26.70719689235939</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.99522579798479</v>
+        <v>26.70719685397079</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>34.16447331971009</v>
+        <v>26.70719688753915</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38.30802454791574</v>
+        <v>26.70719689816251</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>35.29096332062441</v>
+        <v>26.70719689966996</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>41.89711491792355</v>
+        <v>26.70719691620198</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>44.84775261259395</v>
+        <v>26.70719692164301</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.36376816256593</v>
+        <v>26.70719687449574</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>37.99353681242205</v>
+        <v>26.70719691497179</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.76285710074892</v>
+        <v>26.70719692762761</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.03756995209378</v>
+        <v>26.70719689453741</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.43808516748632</v>
+        <v>26.70719693218419</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>38.60631836415733</v>
+        <v>26.70719694385203</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>12.55218421465418</v>
+        <v>26.70719689150427</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.11290799317642</v>
+        <v>26.70719693413587</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.96514508437446</v>
+        <v>26.70719694734865</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>21.27037335055306</v>
+        <v>26.7071969066862</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.78302780320406</v>
+        <v>26.70719694468319</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.99078902771284</v>
+        <v>26.70719695645957</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>39.89888589102573</v>
+        <v>26.70719695534286</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>48.6140346016594</v>
+        <v>26.70719697460595</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>52.11372495423474</v>
+        <v>26.70719698072734</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.43056016694901</v>
+        <v>26.7071969258088</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>44.62899203776027</v>
+        <v>26.70719697222332</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>51.53132810611571</v>
+        <v>26.70719698616256</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.60975348106261</v>
+        <v>26.70719693830577</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.1229439733027</v>
+        <v>26.7071969754401</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.55333698358645</v>
+        <v>26.70719698718139</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.5167970435353</v>
+        <v>26.7071969359596</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>39.33694135010508</v>
+        <v>26.70719697801089</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>45.48617569175576</v>
+        <v>26.70719699130685</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.4366348883294</v>
+        <v>26.70719695254523</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.0715632999287</v>
+        <v>26.707196990025</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.543181300765</v>
+        <v>26.70719700187552</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50.0024994578181</v>
+        <v>26.70719699883188</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>59.11515470992886</v>
+        <v>26.70719701765956</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>63.02334798696073</v>
+        <v>26.70719702344984</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>33.20431639370223</v>
+        <v>26.7071969684843</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>54.7631745367141</v>
+        <v>26.70719701410359</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>62.01874633419871</v>
+        <v>26.70719702813123</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.83896015890184</v>
+        <v>26.70719684412051</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.83440466755946</v>
+        <v>26.70719687737953</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.93292274944415</v>
+        <v>26.70719688790016</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>12.32693226269318</v>
+        <v>26.70719684198174</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.16242047319885</v>
+        <v>26.7071968796446</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>32.8041323008887</v>
+        <v>26.70719689155828</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>19.35435885160864</v>
+        <v>26.70719685320446</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>33.44137913549293</v>
+        <v>26.70719688677287</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.57218390458068</v>
+        <v>26.70719689739137</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>34.69378701273812</v>
+        <v>26.7071968990432</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>41.25380273736031</v>
+        <v>26.70719691558027</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.19055004661769</v>
+        <v>26.70719692102688</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.86403988388416</v>
+        <v>26.70719687390095</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.39178488619442</v>
+        <v>26.70719691438506</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.14375369645884</v>
+        <v>26.70719692703558</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.94914433478997</v>
+        <v>26.70719689428816</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>33.28360053941758</v>
+        <v>26.70719693195564</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>38.44136683542397</v>
+        <v>26.70719694361871</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>12.46779027113505</v>
+        <v>26.70719689121353</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30.95364369080166</v>
+        <v>26.70719693386857</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.7939669675888</v>
+        <v>26.70719694707595</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>21.16460369472637</v>
+        <v>26.70719690644405</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.61053466042819</v>
+        <v>26.70719694446193</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.80768659109486</v>
+        <v>26.7071969562335</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.81375361852413</v>
+        <v>26.70719695522846</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>48.4851968778905</v>
+        <v>26.70719697450681</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.97082051721198</v>
+        <v>26.70719698063018</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.42215150115591</v>
+        <v>26.70719692569059</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>44.53159548730109</v>
+        <v>26.7071969721348</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.42061200189458</v>
+        <v>26.70719698607112</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.6156566539371</v>
+        <v>26.70719693828931</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.07702201103058</v>
+        <v>26.70719697544854</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>46.4981826485089</v>
+        <v>26.70719698717756</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>19.51925989059774</v>
+        <v>26.70719693590232</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.28062354989348</v>
+        <v>26.70719697798181</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.41935700864198</v>
+        <v>26.70719699126387</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.41419514811558</v>
+        <v>26.70719695254133</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>46.99674155514095</v>
+        <v>26.70719699004622</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>52.45899719436312</v>
+        <v>26.70719700188436</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.99417910890828</v>
+        <v>26.70719699894297</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>59.06918857757414</v>
+        <v>26.70719701778535</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>62.96768650295952</v>
+        <v>26.70719702357271</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.2544518075992</v>
+        <v>26.70719696858581</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.74170647930808</v>
+        <v>26.70719701423716</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>61.98435397676224</v>
+        <v>26.70719702825159</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>10.553148851482</v>
+        <v>26.70719684077124</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.27311266685164</v>
+        <v>26.70719687313555</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.7319721208637</v>
+        <v>26.70719688386143</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.704802064096437</v>
+        <v>26.70719683863173</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.09548199852215</v>
+        <v>26.70719687528141</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.1458647510758</v>
+        <v>26.70719688742751</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.10820092303386</v>
+        <v>26.70719684940192</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.90839840070976</v>
+        <v>26.7071968820673</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.40327935992038</v>
+        <v>26.70719689289296</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.71177079127063</v>
+        <v>26.70719689544043</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>34.66851086420498</v>
+        <v>26.70719691180278</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.87434457743171</v>
+        <v>26.70719691748782</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.1627635283012</v>
+        <v>26.70719687148138</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.99981388116698</v>
+        <v>26.707196910814</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>37.21756339816971</v>
+        <v>26.70719692365176</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.27102713402668</v>
+        <v>26.70719689241642</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.36604452625054</v>
+        <v>26.70719692912501</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.05112944660166</v>
+        <v>26.70719694101762</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>8.478730020217881</v>
+        <v>26.70719688922811</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.56067358925256</v>
+        <v>26.70719693079729</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.99875529659256</v>
+        <v>26.7071969442646</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.39318601947934</v>
+        <v>26.70719690387732</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.58872644637164</v>
+        <v>26.70719694092738</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.3184343355525</v>
+        <v>26.70719695293062</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>34.25466447847799</v>
+        <v>26.70719695258216</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.37143095825232</v>
+        <v>26.70719697170983</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.28661398198099</v>
+        <v>26.70719697809486</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.02906720739188</v>
+        <v>26.70719692417024</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>38.50406749979101</v>
+        <v>26.70719696944104</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.07218574601298</v>
+        <v>26.70719698355303</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.52293546225169</v>
+        <v>26.70719693596281</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.75258105128987</v>
+        <v>26.70719697216067</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.67044757570816</v>
+        <v>26.7071969841687</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.00227111076278</v>
+        <v>26.7071969333898</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.36849551905848</v>
+        <v>26.70719697438063</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.07012991304583</v>
+        <v>26.70719698797864</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.11479815521583</v>
+        <v>26.70719694940919</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.45467135636068</v>
+        <v>26.70719698594377</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.41850342806529</v>
+        <v>26.70719699806351</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>43.9664088845567</v>
+        <v>26.70719699561808</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>52.51443537008944</v>
+        <v>26.70719701436838</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>56.81965350493536</v>
+        <v>26.70719702039446</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.45345740973958</v>
+        <v>26.70719696639338</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.31034747714759</v>
+        <v>26.70719701086006</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>56.20084714547058</v>
+        <v>26.70719702512655</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.45721246279927</v>
+        <v>26.70719685027254</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.57452708858599</v>
+        <v>26.70719688280035</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>33.05855886324294</v>
+        <v>26.70719689347144</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>12.94892270638533</v>
+        <v>26.70719684862227</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.78936965406397</v>
+        <v>26.70719688545708</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.86845681155717</v>
+        <v>26.70719689754115</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>19.63966386162414</v>
+        <v>26.70719685969511</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.84026148776526</v>
+        <v>26.7071968925255</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>37.36068478707017</v>
+        <v>26.70719690329587</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>34.3571471153221</v>
+        <v>26.70719690516532</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.4954082519276</v>
+        <v>26.70719692156524</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>43.69571195685153</v>
+        <v>26.7071969271893</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.2951009209126</v>
+        <v>26.70719688075983</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.60079656173547</v>
+        <v>26.70719692025482</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.84912421466047</v>
+        <v>26.70719693303895</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.07194531673645</v>
+        <v>26.70719690245246</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>34.59322889166164</v>
+        <v>26.70719693932283</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>40.26325038136348</v>
+        <v>26.70719695112706</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>14.65305096879654</v>
+        <v>26.70719689981405</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.21754859813831</v>
+        <v>26.70719694156643</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>38.63870187846496</v>
+        <v>26.70719695493366</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.91378781565399</v>
+        <v>26.70719691478716</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.53893517184524</v>
+        <v>26.70719695200052</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>44.25356458420883</v>
+        <v>26.70719696391455</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>40.93099447671165</v>
+        <v>26.70719696296879</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>49.24203373368309</v>
+        <v>26.70719698214051</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>53.13563682964992</v>
+        <v>26.70719698845073</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.19192869176471</v>
+        <v>26.70719693414305</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>45.17083772058322</v>
+        <v>26.70719697957918</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.17401730543308</v>
+        <v>26.70719694441694</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>40.7773521424382</v>
+        <v>26.70719698074562</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.69894208947272</v>
+        <v>26.70719699268324</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>19.98250118567142</v>
+        <v>26.70719694233769</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>38.77172117239756</v>
+        <v>26.70719698347666</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>45.47773131724111</v>
+        <v>26.70719699699494</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.38595216238869</v>
+        <v>26.70719695860753</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.10243709922229</v>
+        <v>26.70719699527415</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.07014306094737</v>
+        <v>26.70719700732282</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>49.42000438083865</v>
+        <v>26.70719700433797</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>58.14125807450722</v>
+        <v>26.70719702312562</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>62.43609087446259</v>
+        <v>26.70719702909293</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.45832376460258</v>
+        <v>26.70719697475595</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>53.76061381661333</v>
+        <v>26.70719701935868</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.65940843068512</v>
+        <v>26.70719703355041</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>16.48157758291939</v>
+        <v>26.70719685511344</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.85332851912473</v>
+        <v>26.70719688656103</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>33.84364890558635</v>
+        <v>26.70719689648107</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.21842531286355</v>
+        <v>26.7071968536769</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.3475838014086</v>
+        <v>26.70719688928847</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.8674548444944</v>
+        <v>26.70719690052202</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.95125697300595</v>
+        <v>26.7071968643441</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.40989723413966</v>
+        <v>26.70719689608422</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>38.43228432124175</v>
+        <v>26.70719690609655</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.36783400004674</v>
+        <v>26.70719690722867</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41.62110809720513</v>
+        <v>26.707196922874</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>44.44892070640113</v>
+        <v>26.70719692799075</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.11929393304777</v>
+        <v>26.70719688327501</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.79265566740438</v>
+        <v>26.7071969214357</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.36935551922067</v>
+        <v>26.70719693336576</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>20.95109214536541</v>
+        <v>26.70719690482016</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.63030440740997</v>
+        <v>26.70719694048304</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>41.63531455891161</v>
+        <v>26.70719695143719</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>16.80346259817049</v>
+        <v>26.70719690250439</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>34.54734164991217</v>
+        <v>26.7071969428894</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>40.21526641621148</v>
+        <v>26.70719695529398</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.23920214500622</v>
+        <v>26.70719691702892</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>41.0250629975576</v>
+        <v>26.70719695302355</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>46.06890542694008</v>
+        <v>26.7071969640796</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>42.83284254147</v>
+        <v>26.70719696271756</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>51.14622997920549</v>
+        <v>26.70719698098174</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>54.52101437180382</v>
+        <v>26.70719698672649</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.0317733925978</v>
+        <v>26.70719693457738</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>47.22387782899055</v>
+        <v>26.70719697847223</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>53.89152307899136</v>
+        <v>26.70719699154341</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.22380849209405</v>
+        <v>26.70719694494553</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>42.90597595193991</v>
+        <v>26.70719698008902</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>48.17127654523148</v>
+        <v>26.70719699114625</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.39404842395818</v>
+        <v>26.70719694320621</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>41.27310804892917</v>
+        <v>26.70719698300306</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.23596214576236</v>
+        <v>26.70719699552438</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>31.93538458306171</v>
+        <v>26.70719695900577</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>48.73285664423763</v>
+        <v>26.70719699447619</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>54.03872122121278</v>
+        <v>26.70719700563628</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.43985864560864</v>
+        <v>26.70719700245031</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>60.11389856116817</v>
+        <v>26.70719702031521</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>63.87797720325077</v>
+        <v>26.707197025761</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.43478044303406</v>
+        <v>26.70719697360381</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>55.86142994518319</v>
+        <v>26.70719701671098</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>62.88338299563235</v>
+        <v>26.70719702991354</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.75391640610152</v>
+        <v>26.70719684211722</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>23.58041696544184</v>
+        <v>26.70719687357133</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.58364141485314</v>
+        <v>26.70719688377603</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.168148283348778</v>
+        <v>26.70719684018715</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.68013661964065</v>
+        <v>26.7071968758061</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>27.21407997092933</v>
+        <v>26.70719688736201</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>14.62654339953942</v>
+        <v>26.70719685069683</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.53556140305308</v>
+        <v>26.70719688244354</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.5706472081128</v>
+        <v>26.70719689274317</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.17982713222555</v>
+        <v>26.7071968950989</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>35.13373762835211</v>
+        <v>26.70719691090965</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.00604195351696</v>
+        <v>26.70719691621613</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>16.54113521971498</v>
+        <v>26.70719687152129</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>31.5963676636233</v>
+        <v>26.70719690980972</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>37.22026043660597</v>
+        <v>26.70719692203201</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.43810753433066</v>
+        <v>26.70719689136452</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.56281999180231</v>
+        <v>26.70719692709622</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.68888727230605</v>
+        <v>26.70719693842173</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>8.962038457504836</v>
+        <v>26.70719688849361</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.0781947763224</v>
+        <v>26.70719692895655</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>31.88275731434471</v>
+        <v>26.70719694178167</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>17.00658417721763</v>
+        <v>26.7071969028428</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>32.23340638985111</v>
+        <v>26.70719693890689</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>37.39904758812661</v>
+        <v>26.70719695033776</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>34.73225937878416</v>
+        <v>26.70719694997523</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>42.73554382935853</v>
+        <v>26.70719696844616</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>46.20667210627445</v>
+        <v>26.70719697440249</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.50906965401426</v>
+        <v>26.70719692211187</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>39.07909169153127</v>
+        <v>26.70719696619865</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>45.93020874490948</v>
+        <v>26.70719697966734</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>20.12354136139972</v>
+        <v>26.70719693372414</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.36762674905236</v>
+        <v>26.70719696897882</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>41.71218436874872</v>
+        <v>26.7071969803553</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>16.02560892400822</v>
+        <v>26.70719693153354</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>34.40877952546216</v>
+        <v>26.70719697145628</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>40.46080542135862</v>
+        <v>26.70719698433912</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.22427515783159</v>
+        <v>26.70719694720496</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.58007879837046</v>
+        <v>26.70719698278758</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>46.96552670726585</v>
+        <v>26.70719699426989</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>44.84237045974866</v>
+        <v>26.70719699198563</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.25607839956331</v>
+        <v>26.70719701004038</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>57.09670262608518</v>
+        <v>26.70719701566524</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.30703759450208</v>
+        <v>26.70719696334335</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.24199944211324</v>
+        <v>26.70719700666498</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>56.39757134911841</v>
+        <v>26.70719702020228</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.29675355164513</v>
+        <v>26.70719684428686</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.47888955041784</v>
+        <v>26.70719687709295</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.95909071497672</v>
+        <v>26.70719688785117</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8.564679538479623</v>
+        <v>26.70719684234587</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.47852955533142</v>
+        <v>26.70719687949583</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.55320501961973</v>
+        <v>26.70719689167855</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.14742158335112</v>
+        <v>26.70719685333782</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.41335642276039</v>
+        <v>26.7071968864491</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>32.92978293949655</v>
+        <v>26.70719689730739</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.10365938061424</v>
+        <v>26.7071968994334</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.2908198173385</v>
+        <v>26.70719691597424</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.49988719228964</v>
+        <v>26.70719692164526</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.05718624099261</v>
+        <v>26.7071968749177</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>32.45873493629752</v>
+        <v>26.70719691477059</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.70338094314424</v>
+        <v>26.70719692766087</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>14.38092002337218</v>
+        <v>26.70719689632334</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.97355546855007</v>
+        <v>26.70719693351302</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>35.65004837947978</v>
+        <v>26.70719694542207</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>9.704584307494009</v>
+        <v>26.70719689336845</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>27.3498825527222</v>
+        <v>26.70719693548243</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>33.77832455307982</v>
+        <v>26.70719694896835</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>17.86317906488424</v>
+        <v>26.70719690829894</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>33.56023529968908</v>
+        <v>26.70719694583457</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>39.28126026646862</v>
+        <v>26.7071969578544</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.14607858176051</v>
+        <v>26.70719695715716</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>44.5217683429154</v>
+        <v>26.70719697649388</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>48.42208928092043</v>
+        <v>26.70719698286508</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.42132577559443</v>
+        <v>26.70719692819147</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>40.50999931411459</v>
+        <v>26.70719697403407</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>48.06618902079646</v>
+        <v>26.70719698818194</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>20.10422901178515</v>
+        <v>26.70719693943101</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.80652398270837</v>
+        <v>26.70719697608656</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>42.74614435037532</v>
+        <v>26.70719698813574</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>15.69367469128573</v>
+        <v>26.70719693708722</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.59495802025351</v>
+        <v>26.70719697859634</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>41.32136319029861</v>
+        <v>26.70719699224096</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.03410108252175</v>
+        <v>26.70719695336541</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.85033760460733</v>
+        <v>26.70719699036195</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.8361000634963</v>
+        <v>26.70719700252322</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.33156087371088</v>
+        <v>26.70719699974641</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.12747566426646</v>
+        <v>26.70719701870132</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>58.44074164123055</v>
+        <v>26.70719702472976</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.34252370413322</v>
+        <v>26.70719696999421</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>49.78761249283221</v>
+        <v>26.70719701501163</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>57.70229055148322</v>
+        <v>26.70719702934211</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.66129308478084</v>
+        <v>26.70719686033414</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.61914039789058</v>
+        <v>26.70719689266281</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.72020281137136</v>
+        <v>26.70719690291113</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>18.84093898713175</v>
+        <v>26.707196859531</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>34.63346872413288</v>
+        <v>26.7071968961403</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.27872922627461</v>
+        <v>26.70719690774562</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.04856792210197</v>
+        <v>26.7071968707816</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.09764796090749</v>
+        <v>26.707196903411</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>44.23169512537802</v>
+        <v>26.70719691375466</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>41.12854714781355</v>
+        <v>26.70719691482639</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>47.59111297544776</v>
+        <v>26.70719693093281</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>50.49498422420494</v>
+        <v>26.70719693619243</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.35590300674529</v>
+        <v>26.7071968901044</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>43.76602442837646</v>
+        <v>26.70719692938574</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>49.51628127946948</v>
+        <v>26.70719694169398</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.45239968325651</v>
+        <v>26.70719690870019</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>38.70592233688072</v>
+        <v>26.707196945308</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.82495827156302</v>
+        <v>26.70719695661604</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>18.50977146168204</v>
+        <v>26.70719690685081</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.90379549127571</v>
+        <v>26.70719694830587</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>42.70073492822276</v>
+        <v>26.70719696111121</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>27.35169102839721</v>
+        <v>26.70719692196441</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.71616179054863</v>
+        <v>26.70719695891276</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.87486530160124</v>
+        <v>26.707196970326</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>45.66172982950527</v>
+        <v>26.70719696887749</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>54.18887161072062</v>
+        <v>26.70719698766173</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.63887290114284</v>
+        <v>26.70719699355271</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>30.37292312042179</v>
+        <v>26.70719693993143</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>50.29986278648651</v>
+        <v>26.7071969850269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>57.1382215983289</v>
+        <v>26.70719699850771</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.72677950053324</v>
+        <v>26.70719694922588</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>45.0065257592825</v>
+        <v>26.70719698529415</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>50.38327582347954</v>
+        <v>26.70719699668275</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.12340263047652</v>
+        <v>26.70719694797987</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>43.67893804374703</v>
+        <v>26.70719698882395</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.76782707344218</v>
+        <v>26.70719700172052</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>34.07206134270083</v>
+        <v>26.7071969643491</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.47161630042265</v>
+        <v>26.7071970007529</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.88971053751049</v>
+        <v>26.70719701224744</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>54.32008222590436</v>
+        <v>26.70719700897132</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>63.22785844321641</v>
+        <v>26.70719702731655</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>67.06375139829029</v>
+        <v>26.70719703289583</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>37.79662320380973</v>
+        <v>26.70719697931319</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>58.98659319997664</v>
+        <v>26.70719702358488</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>66.17777218968604</v>
+        <v>26.70719703716695</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.841739496636929</v>
+        <v>26.70719683374368</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>20.32308512171551</v>
+        <v>26.70719686462754</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.18190594822729</v>
+        <v>26.70719687459953</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>4.860718419649718</v>
+        <v>26.70719683085406</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>18.98314930056322</v>
+        <v>26.70719686582727</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.35298303972365</v>
+        <v>26.70719687711965</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>10.98306107909037</v>
+        <v>26.70719684091821</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.54550927900938</v>
+        <v>26.70719687208938</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>27.43450979757006</v>
+        <v>26.70719688215413</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.1567561814771</v>
+        <v>26.70719688458701</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.050065404313</v>
+        <v>26.70719690003536</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.83690712867327</v>
+        <v>26.70719690525319</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>12.73111093623889</v>
+        <v>26.70719686151855</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>27.49523116970013</v>
+        <v>26.70719689918301</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.92398350643319</v>
+        <v>26.70719691114484</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.466747865510595</v>
+        <v>26.70719688100878</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.14261762076593</v>
+        <v>26.70719691604428</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.09295267235611</v>
+        <v>26.70719692714817</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.772804605938447</v>
+        <v>26.70719687728847</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>21.38169726779965</v>
+        <v>26.70719691696303</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.98693230497472</v>
+        <v>26.70719692953719</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.3827940204565</v>
+        <v>26.70719689109126</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>27.15833129772523</v>
+        <v>26.70719692645268</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.14646126213592</v>
+        <v>26.70719693765986</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.68911288774969</v>
+        <v>26.70719693745441</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>37.56183224583271</v>
+        <v>26.70719695547806</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>40.91808610505052</v>
+        <v>26.70719696136954</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>15.75698789698689</v>
+        <v>26.70719691022236</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>33.89763544515861</v>
+        <v>26.70719695348747</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>40.52254758345184</v>
+        <v>26.70719696673109</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.50494703475734</v>
+        <v>26.7071969236296</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>32.2950423462889</v>
+        <v>26.70719695822166</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.46316708737996</v>
+        <v>26.70719696938703</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>12.2105957008555</v>
+        <v>26.70719692063386</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>30.08066052324823</v>
+        <v>26.70719695980626</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.93257928105636</v>
+        <v>26.70719697245005</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>20.97961561391721</v>
+        <v>26.70719693578009</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.87894194025957</v>
+        <v>26.70719697069395</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>42.08617450159706</v>
+        <v>26.70719698196318</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.07972200384776</v>
+        <v>26.70719697985528</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.35587148055473</v>
+        <v>26.70719699748872</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>52.09105157049873</v>
+        <v>26.7071970030539</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.86941153408894</v>
+        <v>26.70719695181052</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>44.36648101740663</v>
+        <v>26.70719699436111</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>51.28699898219797</v>
+        <v>26.70719700767744</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.62447065189287</v>
+        <v>26.70719684045487</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.86999089812309</v>
+        <v>26.7071968723794</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.78801217535094</v>
+        <v>26.70719688244209</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>8.796654669715295</v>
+        <v>26.70719683777646</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.7835335847697</v>
+        <v>26.70719687392813</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.22075813925662</v>
+        <v>26.70719688532322</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>15.30172584596279</v>
+        <v>26.70719684831407</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.6335909019928</v>
+        <v>26.70719688053557</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.58235802799032</v>
+        <v>26.70719689069187</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.83297994568827</v>
+        <v>26.70719689241654</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.09537391506595</v>
+        <v>26.70719690827061</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>38.9095172284555</v>
+        <v>26.70719691350415</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>16.70426792097766</v>
+        <v>26.70719686838811</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.32653174907177</v>
+        <v>26.70719690722504</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.8137983331983</v>
+        <v>26.70719691933786</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.49341663672598</v>
+        <v>26.70719689043499</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>31.03003687257706</v>
+        <v>26.70719692662705</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>35.98282282731024</v>
+        <v>26.70719693779607</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>10.92575037394345</v>
+        <v>26.70719688697061</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.50858921909596</v>
+        <v>26.70719692795485</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.11681047404448</v>
+        <v>26.70719694060277</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.10608843388446</v>
+        <v>26.70719690142625</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>34.7484832983518</v>
+        <v>26.70719693795498</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.73903782284378</v>
+        <v>26.7071969492279</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.83555164439592</v>
+        <v>26.70719694836471</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>45.15720728306431</v>
+        <v>26.70719696685741</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>48.50685461295741</v>
+        <v>26.7071969727537</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.1560025501221</v>
+        <v>26.70719692005827</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.27575914338101</v>
+        <v>26.70719696466519</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>47.87864796952138</v>
+        <v>26.70719697802407</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.16260838094261</v>
+        <v>26.707196933473</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>38.79427723300704</v>
+        <v>26.7071969691876</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.00597486770356</v>
+        <v>26.7071969804339</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>17.96127747969367</v>
+        <v>26.7071969306714</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.78357350159754</v>
+        <v>26.70719697111497</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>42.68516991478661</v>
+        <v>26.7071969838504</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>27.31945382970382</v>
+        <v>26.70719694653155</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.06632376555523</v>
+        <v>26.70719698257838</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>49.31749495650654</v>
+        <v>26.70719699392929</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>46.91026389497461</v>
+        <v>26.70719699116868</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>55.61463620374425</v>
+        <v>26.70719700926362</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>59.37212750061296</v>
+        <v>26.70719701483797</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.92358705108304</v>
+        <v>26.70719696205417</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>51.38107747240903</v>
+        <v>26.70719700591704</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>58.32938917244326</v>
+        <v>26.70719701936896</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>7.939933071193138</v>
+        <v>26.70719683256167</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.7304047840069</v>
+        <v>26.70719686410521</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.60472421424775</v>
+        <v>26.70719687421284</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>4.92003977073475</v>
+        <v>26.70719682968129</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>19.39179795291559</v>
+        <v>26.70719686540151</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.77936557661533</v>
+        <v>26.7071968768475</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.22501426279482</v>
+        <v>26.70719683992863</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.09844885850738</v>
+        <v>26.7071968717656</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.00303599520088</v>
+        <v>26.70719688196726</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.56330285766831</v>
+        <v>26.70719688441947</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.57441386241725</v>
+        <v>26.70719690016343</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.38689571147245</v>
+        <v>26.70719690543492</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.0011197802008</v>
+        <v>26.70719686099286</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.08164105859836</v>
+        <v>26.70719689941682</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>33.51827171483146</v>
+        <v>26.70719691156032</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.119874702132734</v>
+        <v>26.70719688033807</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.11467028274426</v>
+        <v>26.70719691610027</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.06282398312749</v>
+        <v>26.70719692734978</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>4.195464657921221</v>
+        <v>26.70719687651838</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>21.16490876012642</v>
+        <v>26.70719691701587</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.76773832272872</v>
+        <v>26.70719692975493</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.04169847754612</v>
+        <v>26.70719689058977</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.13813751966045</v>
+        <v>26.70719692668465</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>32.12391652202831</v>
+        <v>26.7071969380388</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.52736173579146</v>
+        <v>26.70719693787201</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>37.54898989031282</v>
+        <v>26.70719695622769</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.90519776864861</v>
+        <v>26.70719696216427</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>15.48939520099663</v>
+        <v>26.70719691022196</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>33.96260067424983</v>
+        <v>26.70719695434687</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>40.55602960288576</v>
+        <v>26.70719696778038</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.20109529903516</v>
+        <v>26.70719692485934</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.35336746689543</v>
+        <v>26.7071969601913</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>38.52248802483469</v>
+        <v>26.7071969714754</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>12.7145875093974</v>
+        <v>26.70719692178588</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.99423763063592</v>
+        <v>26.70719696179615</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.8474022853927</v>
+        <v>26.70719697457438</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.79727343454215</v>
+        <v>26.70719693732823</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>38.0611185630282</v>
+        <v>26.70719697298886</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>43.26923580207105</v>
+        <v>26.70719698437793</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>41.11266820156789</v>
+        <v>26.70719698228508</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>49.54395845186165</v>
+        <v>26.70719700023466</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>53.28186443563592</v>
+        <v>26.70719700583049</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.68982381895675</v>
+        <v>26.70719695376078</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>45.57040977932307</v>
+        <v>26.70719699718588</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>52.46447269160382</v>
+        <v>26.70719701066195</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>3.163016031307226</v>
+        <v>26.70719682736329</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>15.14632296622473</v>
+        <v>26.70719685752821</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.81353503383819</v>
+        <v>26.70719686719393</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-0.2070125198212303</v>
+        <v>26.70719682391696</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>13.35134188370002</v>
+        <v>26.70719685807602</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.50427266532344</v>
+        <v>26.70719686902158</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>5.502425533585711</v>
+        <v>26.70719683340642</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.56307543173103</v>
+        <v>26.70719686385194</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.25878111348916</v>
+        <v>26.70719687360758</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.12394950281625</v>
+        <v>26.70719687629648</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.80594050992075</v>
+        <v>26.70719689134695</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.48834541473193</v>
+        <v>26.70719689641309</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>7.423199987459004</v>
+        <v>26.70719685409991</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.5393981316365</v>
+        <v>26.70719689083855</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.68682650677785</v>
+        <v>26.70719690245894</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>5.261828977455036</v>
+        <v>26.70719687401922</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.37344479265589</v>
+        <v>26.70719690824414</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.08795012814958</v>
+        <v>26.70719691901556</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>0.1748966987572302</v>
+        <v>26.70719686972781</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>16.14472157109364</v>
+        <v>26.70719690848445</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.48297767822467</v>
+        <v>26.70719692068212</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.392780845357002</v>
+        <v>26.70719688291737</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>21.5997188691719</v>
+        <v>26.70719691746065</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.34998996285825</v>
+        <v>26.70719692833228</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.02855691732566</v>
+        <v>26.70719692847607</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>31.65228835661725</v>
+        <v>26.70719694603059</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>34.86577215569243</v>
+        <v>26.70719695174925</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.87836758403188</v>
+        <v>26.70719690219003</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.26386118163673</v>
+        <v>26.70719694441287</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.54286135439924</v>
+        <v>26.70719695728441</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.675423141417</v>
+        <v>26.70719691783178</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.92017418986503</v>
+        <v>26.70719695165641</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.85458271890126</v>
+        <v>26.70719696248048</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>9.016918583649467</v>
+        <v>26.70719691427627</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.26941847603971</v>
+        <v>26.70719695257962</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>31.85682474431118</v>
+        <v>26.70719696483691</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.46597066995761</v>
+        <v>26.70719692894214</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>32.81575458523471</v>
+        <v>26.70719696308141</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>37.78731717595893</v>
+        <v>26.70719697400617</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.83647841953763</v>
+        <v>26.70719697224627</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>43.85752628028422</v>
+        <v>26.70719698943278</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>47.44641556991601</v>
+        <v>26.70719699482687</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.328448820103</v>
+        <v>26.70719694509009</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>40.08972502754661</v>
+        <v>26.70719698665908</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>46.66332216169131</v>
+        <v>26.70719699959713</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.41416117695233</v>
+        <v>26.70719684230005</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.53272711328705</v>
+        <v>26.7071968753051</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>30.06390771819718</v>
+        <v>26.70719688621855</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.628661343295384</v>
+        <v>26.70719684024056</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.47057996934383</v>
+        <v>26.70719687761582</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.60283466680539</v>
+        <v>26.70719688997432</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.3430003919878</v>
+        <v>26.70719685141338</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.54474933101699</v>
+        <v>26.70719688472547</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>34.11252529834325</v>
+        <v>26.70719689574043</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>31.32543696889669</v>
+        <v>26.70719689818278</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.44861782555766</v>
+        <v>26.70719691484956</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.68658807338959</v>
+        <v>26.70719692061132</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>18.3285550960337</v>
+        <v>26.70719687360963</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.66318813775527</v>
+        <v>26.70719691375171</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>39.9894167137343</v>
+        <v>26.70719692680894</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.25207311426258</v>
+        <v>26.70719689391409</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.76779477532382</v>
+        <v>26.70719693133318</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>35.52307058703896</v>
+        <v>26.70719694342593</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>9.42509209101561</v>
+        <v>26.70719689075927</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.9833334775361</v>
+        <v>26.70719693313302</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>33.50082952936656</v>
+        <v>26.70719694682697</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>17.65569975779684</v>
+        <v>26.70719690585777</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.27508497703305</v>
+        <v>26.70719694362494</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>39.07548246926959</v>
+        <v>26.70719695583019</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.96877717202602</v>
+        <v>26.70719695537312</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>44.26878211834086</v>
+        <v>26.7071969748493</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>48.20980990318944</v>
+        <v>26.70719698130979</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>21.30936801755583</v>
+        <v>26.70719692631187</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>40.32181417408583</v>
+        <v>26.70719697247767</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>47.99504010848037</v>
+        <v>26.70719698682778</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>20.45768970247681</v>
+        <v>26.70719693784453</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.12751416906008</v>
+        <v>26.70719697474221</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>43.11556938156958</v>
+        <v>26.70719698694048</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>15.92420777818836</v>
+        <v>26.70719693533341</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>34.78873520525656</v>
+        <v>26.70719697711672</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>41.56978162163837</v>
+        <v>26.70719699093017</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.35635615784012</v>
+        <v>26.70719695179006</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>42.13971268424157</v>
+        <v>26.70719698903099</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>48.17422487678843</v>
+        <v>26.70719700134273</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>45.69656622716769</v>
+        <v>26.70719699877794</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.43610834653797</v>
+        <v>26.70719701785558</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>58.76869657066833</v>
+        <v>26.70719702395431</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.72614818177558</v>
+        <v>26.7071969688954</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>50.14583469629714</v>
+        <v>26.70719701423743</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>58.14302035155742</v>
+        <v>26.70719702872675</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>13.64167474571693</v>
+        <v>26.70719684034018</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.70665683267926</v>
+        <v>26.70719687197004</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.61201247083509</v>
+        <v>26.7071968820476</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.00896074124733</v>
+        <v>26.70719683774496</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.7918543758885</v>
+        <v>26.70719687356293</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.21452318429953</v>
+        <v>26.70719688497486</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.52618913012996</v>
+        <v>26.70719684823608</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.67661174022214</v>
+        <v>26.70719688016016</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.61250784242734</v>
+        <v>26.70719689033147</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.94736235182686</v>
+        <v>26.70719689221076</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>38.12192903360309</v>
+        <v>26.70719690795702</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>40.93235764100714</v>
+        <v>26.70719691320745</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>18.94160415693352</v>
+        <v>26.70719686845195</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>34.40934976998757</v>
+        <v>26.70719690699455</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.89622781787839</v>
+        <v>26.70719691910563</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>14.58820992499729</v>
+        <v>26.70719688751869</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.85301098532523</v>
+        <v>26.70719692332503</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.80138979151134</v>
+        <v>26.70719693452695</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10.1641503378522</v>
+        <v>26.70719688404303</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>27.43957254962406</v>
+        <v>26.70719692459048</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>33.04266886775464</v>
+        <v>26.70719693727566</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>18.1838843108808</v>
+        <v>26.7071968983156</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.55276417638606</v>
+        <v>26.70719693445501</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.53881452274678</v>
+        <v>26.70719694576115</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>35.78893188781841</v>
+        <v>26.70719694507716</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.96570083314415</v>
+        <v>26.7071969634177</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.31206724517148</v>
+        <v>26.70719696934064</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>21.31871822271015</v>
+        <v>26.7071969171437</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.16927084043517</v>
+        <v>26.70719696132697</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>46.78312597872231</v>
+        <v>26.70719697470983</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.30651297458398</v>
+        <v>26.70719693035373</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>37.6794336407786</v>
+        <v>26.70719696569632</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>42.87058114956191</v>
+        <v>26.70719697696442</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>17.25602006888153</v>
+        <v>26.70719692757208</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>35.78573139994921</v>
+        <v>26.70719696759438</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>41.66383140692317</v>
+        <v>26.70719698035449</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.44794997527618</v>
+        <v>26.70719694322374</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.93448992692211</v>
+        <v>26.7071969788951</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.16484184493288</v>
+        <v>26.70719699026802</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>45.87820564098463</v>
+        <v>26.70719698769779</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.45246605023218</v>
+        <v>26.70719700563618</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>58.19877826552158</v>
+        <v>26.70719701123075</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.11583747920228</v>
+        <v>26.70719695894612</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>50.31665654785439</v>
+        <v>26.70719700239686</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.25633656574229</v>
+        <v>26.70719701585714</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.80672725545828</v>
+        <v>26.70719685301804</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.57989974805142</v>
+        <v>26.70719688656482</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.17441717200066</v>
+        <v>26.70719689755003</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>15.50307905500902</v>
+        <v>26.70719685172704</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.08585465050264</v>
+        <v>26.70719688971575</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.29010148856908</v>
+        <v>26.70719690215551</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.61826033742314</v>
+        <v>26.70719686330934</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.4795291171331</v>
+        <v>26.70719689716818</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>41.1113567841927</v>
+        <v>26.70719690825558</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>37.95308535509068</v>
+        <v>26.70719690996636</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.36803694428636</v>
+        <v>26.70719692685846</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>47.63983868621124</v>
+        <v>26.70719693261859</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.27445230678218</v>
+        <v>26.70719688467574</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>40.38757150562653</v>
+        <v>26.70719692543288</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.79998490616266</v>
+        <v>26.70719693859008</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.07475794838232</v>
+        <v>26.70719690515344</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.28313905050462</v>
+        <v>26.70719694314529</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>42.06685997641308</v>
+        <v>26.70719695528687</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>15.67097989762404</v>
+        <v>26.70719690275408</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>34.01328522433852</v>
+        <v>26.70719694577645</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.56315567519155</v>
+        <v>26.70719695952568</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.36679824357075</v>
+        <v>26.7071969183096</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>40.68416302242107</v>
+        <v>26.70719695665487</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>46.5133400939111</v>
+        <v>26.70719696890939</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>43.08696968598379</v>
+        <v>26.7071969677781</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>51.71118936806636</v>
+        <v>26.70719698751005</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>55.67441559710561</v>
+        <v>26.70719699396363</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.7298386705703</v>
+        <v>26.70719693798762</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.57502927456112</v>
+        <v>26.70719698482118</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>55.2881949388543</v>
+        <v>26.70719699923852</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.21076799172941</v>
+        <v>26.70719694780162</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.51718906204874</v>
+        <v>26.70719698522971</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>48.55766845077834</v>
+        <v>26.70719699749328</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>21.05785310482429</v>
+        <v>26.70719694598252</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>40.64296047587259</v>
+        <v>26.70719698836647</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>47.48355830212185</v>
+        <v>26.70719700225386</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>30.91326651232674</v>
+        <v>26.70719696284015</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>48.33810478052149</v>
+        <v>26.70719700061641</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>54.42558583641272</v>
+        <v>26.70719701299407</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>51.69873723433784</v>
+        <v>26.70719700980719</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>60.74319237576967</v>
+        <v>26.70719702912484</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>65.1085358175433</v>
+        <v>26.7071970352271</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.08994984300596</v>
+        <v>26.70719697925018</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>56.27980707217424</v>
+        <v>26.70719702521659</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>64.34686742421334</v>
+        <v>26.7071970397936</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.87355904665468</v>
+        <v>26.7071968507916</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>27.87677261588196</v>
+        <v>26.7071968826896</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.41565652129856</v>
+        <v>26.70719689325657</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>12.34570468704911</v>
+        <v>26.70719684931006</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.05683800575562</v>
+        <v>26.70719688543167</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.19799446803008</v>
+        <v>26.70719689739781</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>19.01220635567314</v>
+        <v>26.70719686012481</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.09760640820008</v>
+        <v>26.70719689231954</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.67333772350219</v>
+        <v>26.7071969029848</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>33.73801614160155</v>
+        <v>26.70719690502775</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>39.81191528437083</v>
+        <v>26.70719692115836</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.0500185310452</v>
+        <v>26.70719692674116</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>20.82953585405494</v>
+        <v>26.70719688119942</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>35.99464767523318</v>
+        <v>26.70719691994522</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>42.32505259320808</v>
+        <v>26.7071969325976</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>17.69559464550208</v>
+        <v>26.70719690167569</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>33.09519291059011</v>
+        <v>26.70719693782098</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.84444747718139</v>
+        <v>26.70719694952015</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.20269670743072</v>
+        <v>26.70719689918094</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>30.62930295575875</v>
+        <v>26.70719694011223</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.14014352899706</v>
+        <v>26.70719695336049</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>21.39896921955044</v>
+        <v>26.70719691377894</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.90125999974138</v>
+        <v>26.70719695026046</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.69578524916063</v>
+        <v>26.70719696206847</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.43174234446462</v>
+        <v>26.70719696128729</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.67878484046243</v>
+        <v>26.70719698014046</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>51.62404039590351</v>
+        <v>26.70719698640293</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.84726755848908</v>
+        <v>26.70719693310419</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.68089901780556</v>
+        <v>26.70719697766842</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.34294696914219</v>
+        <v>26.70719699154953</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>23.1158188184153</v>
+        <v>26.70719694316219</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.62691924758499</v>
+        <v>26.70719697878256</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>45.61685902694046</v>
+        <v>26.70719699060099</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>18.85501192407457</v>
+        <v>26.70719694121016</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.53970271057578</v>
+        <v>26.70719698154702</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>44.32303876865593</v>
+        <v>26.70719699493034</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.21126128783232</v>
+        <v>26.70719695709054</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>44.8345840292574</v>
+        <v>26.70719699304226</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.87119093999718</v>
+        <v>26.70719700497063</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>48.26254661590634</v>
+        <v>26.70719700216374</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>56.93587700575758</v>
+        <v>26.70719702063775</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>61.2771409026988</v>
+        <v>26.70719702655218</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.42420225824625</v>
+        <v>26.70719697322275</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>52.61404350498879</v>
+        <v>26.70719701697137</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>60.61085507137112</v>
+        <v>26.7071970310113</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.90164548519363</v>
+        <v>26.70719684290352</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>27.77315817134807</v>
+        <v>26.70719687634748</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.06838506290815</v>
+        <v>26.70719688704353</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.26040883641131</v>
+        <v>26.70719684062467</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.95576075139529</v>
+        <v>26.70719687849695</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.82026817334069</v>
+        <v>26.70719689060926</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>18.23250655515564</v>
+        <v>26.70719685196903</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>32.19437072811311</v>
+        <v>26.70719688572411</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.52363207539084</v>
+        <v>26.70719689651965</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>33.65639196979474</v>
+        <v>26.70719689831793</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>40.18393976779537</v>
+        <v>26.70719691498623</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.23694553949431</v>
+        <v>26.70719692057634</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>19.81550233951041</v>
+        <v>26.70719687304071</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.19342529629686</v>
+        <v>26.70719691376687</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.21465918972223</v>
+        <v>26.70719692661634</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.46867831088099</v>
+        <v>26.7071968932099</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>31.70302623766743</v>
+        <v>26.70719693107317</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>37.10370146101647</v>
+        <v>26.70719694292167</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.87182570775536</v>
+        <v>26.7071968899862</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.24444260290385</v>
+        <v>26.70719693286295</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.35998332364797</v>
+        <v>26.70719694628032</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>19.43634369566163</v>
+        <v>26.70719690530522</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.78111640422993</v>
+        <v>26.7071969435207</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>41.22339279901632</v>
+        <v>26.70719695547943</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>38.21838468371838</v>
+        <v>26.70719695455714</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>46.88276905087119</v>
+        <v>26.70719697399417</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>50.533005954432</v>
+        <v>26.70719698028633</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.7872833947962</v>
+        <v>26.70719692485412</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>42.79178527057731</v>
+        <v>26.70719697155891</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.01495662892469</v>
+        <v>26.70719698570676</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>21.6196301168092</v>
+        <v>26.70719693709004</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.98029927753501</v>
+        <v>26.70719697443128</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.64131376781273</v>
+        <v>26.70719698637679</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>17.36260623027209</v>
+        <v>26.70719693455153</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.009986289141</v>
+        <v>26.70719697683713</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.42044183222558</v>
+        <v>26.70719699036435</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>27.11237396432758</v>
+        <v>26.70719695123403</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>44.59314162925139</v>
+        <v>26.70719698892264</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>50.29739868110116</v>
+        <v>26.70719700097927</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>47.85085180079639</v>
+        <v>26.70719699805763</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.93647925495076</v>
+        <v>26.70719701707914</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>61.00296783927172</v>
+        <v>26.70719702302593</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>31.12697216106672</v>
+        <v>26.70719696754175</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>52.51203242888134</v>
+        <v>26.70719701343627</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>60.08253881200748</v>
+        <v>26.70719702769714</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>10.86607971383996</v>
+        <v>26.70719684253143</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.27466586472193</v>
+        <v>26.70719687353296</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.42176997163762</v>
+        <v>26.70719688371612</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>8.263855235136507</v>
+        <v>26.70719684046794</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.30269209522952</v>
+        <v>26.70719687557438</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.99967130428347</v>
+        <v>26.7071968871059</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.4406798650921</v>
+        <v>26.70719685083892</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.92833317696207</v>
+        <v>26.70719688212884</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.10864848347608</v>
+        <v>26.70719689240673</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.52967006802803</v>
+        <v>26.70719689486929</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>34.32365399560838</v>
+        <v>26.70719691050821</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.31486504649062</v>
+        <v>26.70719691591606</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.19758236784133</v>
+        <v>26.70719687178885</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.720338689797</v>
+        <v>26.70719690951521</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.52917560654097</v>
+        <v>26.70719692170614</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>13.37261825669894</v>
+        <v>26.70719689157211</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.07144414894416</v>
+        <v>26.70719692676169</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.39714652507794</v>
+        <v>26.70719693807438</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>8.945937168065665</v>
+        <v>26.70719688857192</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.57979677299837</v>
+        <v>26.70719692842096</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>31.6106479630667</v>
+        <v>26.70719694123155</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.58927724709547</v>
+        <v>26.70719690265983</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.38663821946178</v>
+        <v>26.70719693817676</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.75387227997288</v>
+        <v>26.70719694959468</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>33.85117366839104</v>
+        <v>26.70719694929253</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.71778504870518</v>
+        <v>26.70719696758346</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>45.37461618088778</v>
+        <v>26.70719697364171</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.93196550641954</v>
+        <v>26.70719692195784</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>37.96359727771198</v>
+        <v>26.70719696538785</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>45.07872765692711</v>
+        <v>26.70719697882042</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.13259571402705</v>
+        <v>26.7071969330926</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>34.91421659952579</v>
+        <v>26.70719696779848</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.47394686979951</v>
+        <v>26.7071969792036</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.95164545468784</v>
+        <v>26.70719693068264</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.8110991236916</v>
+        <v>26.70719696998393</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>39.10691363075348</v>
+        <v>26.70719698289919</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.71156798856159</v>
+        <v>26.70719694604352</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>39.60100447590722</v>
+        <v>26.70719698107224</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>45.20366408653796</v>
+        <v>26.70719699258346</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>42.86711483633268</v>
+        <v>26.70719699027324</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.12732765319996</v>
+        <v>26.70719700819179</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>55.1612792101967</v>
+        <v>26.70719701390866</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.7160818376633</v>
+        <v>26.70719696216759</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>47.06197894888082</v>
+        <v>26.70719700482584</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>54.50257821899253</v>
+        <v>26.7071970183819</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.44798444592232</v>
+        <v>26.70719684877938</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.31019224396367</v>
+        <v>26.70719688047904</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>30.83105842295373</v>
+        <v>26.70719689101919</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>10.82748340226737</v>
+        <v>26.70719684720025</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.37911557000723</v>
+        <v>26.70719688309727</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.49978980719216</v>
+        <v>26.70719689503304</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>17.4048523725288</v>
+        <v>26.70719685791326</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.34828884081931</v>
+        <v>26.7071968899078</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>34.905813917954</v>
+        <v>26.707196900546</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>32.09718900524683</v>
+        <v>26.70719690276524</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.10454064155829</v>
+        <v>26.70719691882056</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.338923558767</v>
+        <v>26.70719692439544</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>19.33964573287363</v>
+        <v>26.70719687913999</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>34.34699092088574</v>
+        <v>26.70719691766487</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.65291663688024</v>
+        <v>26.70719693027556</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>16.02031810113012</v>
+        <v>26.7071968992607</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.26662456448188</v>
+        <v>26.70719693519038</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>37.01278692331609</v>
+        <v>26.70719694687217</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>11.44148444048376</v>
+        <v>26.70719689666631</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.6946564239589</v>
+        <v>26.70719693735344</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.20193346636849</v>
+        <v>26.70719695058203</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.52461592854921</v>
+        <v>26.70719691113696</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>34.87254682095566</v>
+        <v>26.70719694740087</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>40.66393202179862</v>
+        <v>26.70719695919134</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.50422235905869</v>
+        <v>26.70719695857484</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>45.67378165556774</v>
+        <v>26.70719697734209</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>49.62412270709834</v>
+        <v>26.7071969835991</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>23.07239903997137</v>
+        <v>26.70719693061185</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>41.73148060597448</v>
+        <v>26.70719697492901</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>49.38927904172617</v>
+        <v>26.70719698878013</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.58611777466624</v>
+        <v>26.70719694077683</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>37.94942921561569</v>
+        <v>26.70719697618939</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>43.92982178967219</v>
+        <v>26.70719698798541</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>17.24431205719519</v>
+        <v>26.70719693873325</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.76180090793409</v>
+        <v>26.70719697883479</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.53424684514047</v>
+        <v>26.70719699219272</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.48965490742172</v>
+        <v>26.70719695448443</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.96416000663182</v>
+        <v>26.70719699022642</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.99111494796969</v>
+        <v>26.70719700213216</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>46.47628457386025</v>
+        <v>26.70719699948607</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>55.0731931667059</v>
+        <v>26.70719701787488</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>59.41369200128</v>
+        <v>26.7071970237817</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.78850548410077</v>
+        <v>26.70719697075945</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>50.80864891652659</v>
+        <v>26.70719701426788</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>58.79332464661768</v>
+        <v>26.70719702827217</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.923373851274</v>
+        <v>26.7071968535782</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.02976879336913</v>
+        <v>26.70719688556827</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.30369297843341</v>
+        <v>26.70719689593689</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.90275495313545</v>
+        <v>26.70719685231817</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.73089109261525</v>
+        <v>26.70719688854404</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.57178759869785</v>
+        <v>26.70719690028558</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.70185597349344</v>
+        <v>26.70719686327135</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>35.89211377876165</v>
+        <v>26.707196895559</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>40.20053060681793</v>
+        <v>26.70719690602407</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>37.26622948656988</v>
+        <v>26.70719690777476</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.34770857161129</v>
+        <v>26.70719692381891</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.35558422322767</v>
+        <v>26.70719692922066</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>24.29611561448144</v>
+        <v>26.70719688365532</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>39.63192383187407</v>
+        <v>26.707196922529</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>45.62607085049812</v>
+        <v>26.7071969349733</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>19.714378709933</v>
+        <v>26.70719690276593</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>35.11586236617187</v>
+        <v>26.70719693901363</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.48967006406352</v>
+        <v>26.70719695048719</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>15.67657245865961</v>
+        <v>26.70719690045498</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.10545230147571</v>
+        <v>26.70719694150224</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.19090156718337</v>
+        <v>26.70719695449502</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>24.02563520097542</v>
+        <v>26.70719691522622</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>39.53060812542989</v>
+        <v>26.70719695181111</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.9463823547393</v>
+        <v>26.70719696339141</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>41.8313181910702</v>
+        <v>26.7071969624495</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.97889907739351</v>
+        <v>26.70719698118119</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>53.59094019890684</v>
+        <v>26.70719698723494</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>27.318421551531</v>
+        <v>26.70719693403207</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>46.17364590087</v>
+        <v>26.70719697871017</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>53.36004631412324</v>
+        <v>26.70719699236983</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.22765749074989</v>
+        <v>26.70719694413025</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>41.72240058685759</v>
+        <v>26.70719697986376</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.32414038532033</v>
+        <v>26.70719699141844</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>21.46369552912327</v>
+        <v>26.70719694241054</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>40.1300532923918</v>
+        <v>26.70719698287552</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.47363032672658</v>
+        <v>26.70719699596015</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>30.93868646821974</v>
+        <v>26.70719695846217</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>47.5463395534716</v>
+        <v>26.70719699452808</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>53.19139743233643</v>
+        <v>26.70719700619025</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>50.67398037544915</v>
+        <v>26.70719700331872</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.23842508429702</v>
+        <v>26.70719702164183</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>63.23544219538481</v>
+        <v>26.70719702736271</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.88631644743131</v>
+        <v>26.70719697415706</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>55.07650299220925</v>
+        <v>26.70719701803162</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>62.58477959420853</v>
+        <v>26.70719703179562</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.38362771973272</v>
+        <v>26.70719684534888</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.24137186107309</v>
+        <v>26.70719687870117</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>32.55393431139125</v>
+        <v>26.70719688937834</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>11.85595627886477</v>
+        <v>26.70719684335756</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.53561838873129</v>
+        <v>26.70719688112603</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.41983358082266</v>
+        <v>26.70719689321697</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>18.8260459573474</v>
+        <v>26.70719685469137</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>32.77394391828439</v>
+        <v>26.70719688835391</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.12077858991699</v>
+        <v>26.70719689913041</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.23113509124202</v>
+        <v>26.70719690091899</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>40.73424276122429</v>
+        <v>26.70719691756784</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>43.80434520389473</v>
+        <v>26.70719692313994</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.39706799091996</v>
+        <v>26.70719687568727</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.74987544649231</v>
+        <v>26.70719691629514</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>42.78730703274663</v>
+        <v>26.70719692911562</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.05308066585421</v>
+        <v>26.70719689567227</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>32.2673290957618</v>
+        <v>26.70719693342697</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>37.70200916637636</v>
+        <v>26.70719694525354</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>11.55245734659036</v>
+        <v>26.70719689271877</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.90225734133785</v>
+        <v>26.70719693547258</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.05636457161364</v>
+        <v>26.7071969488651</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>20.1132032293163</v>
+        <v>26.70719690801164</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.437655689794</v>
+        <v>26.70719694611755</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.91431075066537</v>
+        <v>26.70719695805414</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>38.8638384606739</v>
+        <v>26.70719695712617</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.49957407548587</v>
+        <v>26.70719697654914</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.18277031722073</v>
+        <v>26.70719698281411</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.44275851971473</v>
+        <v>26.70719692748254</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>43.41707171848741</v>
+        <v>26.70719697406007</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>50.67648689584155</v>
+        <v>26.70719698816421</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>21.83710639073027</v>
+        <v>26.70719693891811</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.15278147422106</v>
+        <v>26.70719697613672</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>44.85344743829187</v>
+        <v>26.70719698806701</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>17.64408534832151</v>
+        <v>26.7071969366122</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>37.24046468977193</v>
+        <v>26.70719697875893</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>43.69586549867513</v>
+        <v>26.70719699226891</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.36941423119832</v>
+        <v>26.70719695323348</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>44.80475659468577</v>
+        <v>26.70719699079832</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>50.54908737776773</v>
+        <v>26.70719700283958</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>48.07531565263515</v>
+        <v>26.70719699992233</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>57.12388252408614</v>
+        <v>26.70719701892331</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>61.2260645593402</v>
+        <v>26.70719702484993</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.38931613745033</v>
+        <v>26.7071969694866</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>52.71076380186512</v>
+        <v>26.70719701523457</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>60.32935911653442</v>
+        <v>26.70719702946434</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.547</v>
+        <v>18.798</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.143</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.688</v>
+        <v>16.09</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.034</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.077</v>
+        <v>14.676</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.70719684526841</v>
+        <v>9.934564025278753</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.70719687787318</v>
+        <v>31.22922592593281</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.70719688869164</v>
+        <v>35.92446830254359</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.70719684344224</v>
+        <v>12.11968967952713</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.70719688036422</v>
+        <v>30.20218236382915</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.70719689261515</v>
+        <v>34.64905678451073</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.70719685449022</v>
+        <v>20.07629872353787</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.7071968873983</v>
+        <v>38.31909999749372</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.70719689831739</v>
+        <v>42.8648705416017</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.70719690064078</v>
+        <v>40.55343380089734</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.7071969171404</v>
+        <v>47.15320917604891</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.70719692285534</v>
+        <v>50.41270807769259</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.7071968763141</v>
+        <v>22.7749125272076</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.70719691595828</v>
+        <v>40.29861894751933</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.7071969288973</v>
+        <v>47.24923921887014</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.70719689713549</v>
+        <v>15.95220894406751</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.7071969341133</v>
+        <v>40.64827589546283</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.70719694610237</v>
+        <v>47.3035923705014</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.70719689426515</v>
+        <v>13.7299445443659</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.7071969361392</v>
+        <v>34.66956874993203</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.70719694971575</v>
+        <v>40.93749972558706</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.70719690920838</v>
+        <v>23.69690955927481</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.70719694653017</v>
+        <v>45.22322573826865</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.70719695863078</v>
+        <v>51.64418904207588</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.70719695804753</v>
+        <v>49.57334980411632</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.70719697733839</v>
+        <v>58.99927535443676</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.70719698374741</v>
+        <v>64.04159338577456</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.7071969292552</v>
+        <v>27.22406745447487</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.70719697487427</v>
+        <v>51.57762730762595</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.70719698909068</v>
+        <v>59.72965224808887</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.70719693998718</v>
+        <v>22.11928397083389</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.70719697643862</v>
+        <v>48.86056359847463</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.70719698853752</v>
+        <v>57.10228765075096</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.70719693771898</v>
+        <v>20.13364688121044</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.70719697899696</v>
+        <v>43.217036267132</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.70719699269788</v>
+        <v>50.90883478645422</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.70719695397375</v>
+        <v>33.2527622260274</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.70719699076427</v>
+        <v>56.75139136695639</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.70719700297572</v>
+        <v>64.71583556550412</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.70719700031309</v>
+        <v>64.45450507683437</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.70719701921039</v>
+        <v>75.07361654140672</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.70719702526227</v>
+        <v>80.93963232150567</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.70719697073358</v>
+        <v>38.56645105730647</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.70719701552527</v>
+        <v>65.75976343177302</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.70719702988857</v>
+        <v>75.43605713238017</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.70719684483592</v>
+        <v>15.03252441891889</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.7071968780949</v>
+        <v>38.71438072918116</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.70719688862035</v>
+        <v>43.16093576161525</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.70719684277746</v>
+        <v>17.47492959039331</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.70719688044026</v>
+        <v>38.13321414496437</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.70719689235939</v>
+        <v>42.18708709539271</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.70719685397079</v>
+        <v>27.24498887655294</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.70719688753915</v>
+        <v>47.82996100816462</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.70719689816251</v>
+        <v>52.14358879183426</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.70719689966996</v>
+        <v>49.34362820268726</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.70719691620198</v>
+        <v>56.87488652163107</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.70719692164301</v>
+        <v>59.13861141751437</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.70719687449574</v>
+        <v>28.61305192277058</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.70719691497179</v>
+        <v>49.31461230984004</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.70719692762761</v>
+        <v>55.69554928571209</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.70719689453741</v>
+        <v>15.57365198706875</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.70719693218419</v>
+        <v>42.47797167810565</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.70719694385203</v>
+        <v>48.53270619054972</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.70719689150427</v>
+        <v>13.6272842804437</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.70719693413587</v>
+        <v>36.95718692726791</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.70719694734865</v>
+        <v>42.5031364822338</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.7071969066862</v>
+        <v>25.2661888755929</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.70719694468319</v>
+        <v>48.96136555843201</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.70719695645957</v>
+        <v>54.80543483231885</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.70719695534286</v>
+        <v>52.89887998401271</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.70719697460595</v>
+        <v>63.15569456872308</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.70719698072734</v>
+        <v>67.05012840281955</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.7071969258088</v>
+        <v>28.28012462595951</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.70719697222332</v>
+        <v>55.49460597975337</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.70719698616256</v>
+        <v>62.65335104025979</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.70719693830577</v>
+        <v>22.98270809496778</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.7071969754401</v>
+        <v>52.01644216850371</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.70719698718139</v>
+        <v>59.75672501955896</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.7071969359596</v>
+        <v>21.22765213088063</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.70719697801089</v>
+        <v>46.81873722544427</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.70719699130685</v>
+        <v>53.86534227313544</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.70719695254523</v>
+        <v>36.03161478727936</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.707196990025</v>
+        <v>61.78104267429717</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.70719700187552</v>
+        <v>69.28426116727844</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.70719699883188</v>
+        <v>68.85592607657175</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70719701765956</v>
+        <v>80.35959944129503</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.70719702344984</v>
+        <v>84.98281731613328</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.7071969684843</v>
+        <v>40.70299974034712</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.70719701410359</v>
+        <v>70.82259241836537</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.70719702813123</v>
+        <v>79.58995989399681</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.70719684412051</v>
+        <v>13.41366625300343</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.70719687737953</v>
+        <v>36.79849670944946</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.70719688790016</v>
+        <v>41.00379384825615</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.70719684198174</v>
+        <v>15.6007174462193</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.7071968796446</v>
+        <v>35.95996094727742</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.70719689155828</v>
+        <v>39.7211495246238</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.70719685320446</v>
+        <v>25.29103303413392</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.70719688677287</v>
+        <v>45.57735914691638</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.70719689739137</v>
+        <v>49.66123411263001</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.7071968990432</v>
+        <v>47.37965641895593</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.70719691558027</v>
+        <v>54.78599154163128</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.70719692102688</v>
+        <v>56.99875545882195</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.70719687390095</v>
+        <v>26.96772480861965</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.70719691438506</v>
+        <v>47.33828186182959</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.70719692703558</v>
+        <v>53.41537899229493</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.70719689428816</v>
+        <v>16.22639480587563</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.70719693195564</v>
+        <v>42.93400408999997</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.70719694361871</v>
+        <v>48.73706987554531</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.70719689121353</v>
+        <v>14.09241285127164</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.70719693386857</v>
+        <v>37.22675439682217</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.70719694707595</v>
+        <v>42.4787981430582</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.70719690644405</v>
+        <v>25.77423930118478</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.70719694446193</v>
+        <v>49.26647783248488</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.7071969562335</v>
+        <v>54.87114815333492</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.70719695522846</v>
+        <v>53.24430654691389</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.70719697450681</v>
+        <v>63.39093742997797</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.70719698063018</v>
+        <v>67.20082987962515</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.70719692569059</v>
+        <v>28.8452497582666</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.7071969721348</v>
+        <v>55.80179627144047</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.70719698607112</v>
+        <v>62.6486807344603</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.70719693828931</v>
+        <v>23.8543123529093</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.70719697544854</v>
+        <v>52.669281726829</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.70719698717756</v>
+        <v>60.17259098292246</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.70719693590232</v>
+        <v>21.82588362277084</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.70719697798181</v>
+        <v>47.20826923190504</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.70719699126387</v>
+        <v>53.96675142104075</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.70719695254133</v>
+        <v>36.71757040755558</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.70719699004622</v>
+        <v>62.23813402487902</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.70719700188436</v>
+        <v>69.51879832449993</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.70719699894297</v>
+        <v>69.36328558909501</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.70719701778535</v>
+        <v>80.76122105433838</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.70719702357271</v>
+        <v>85.31980915763431</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.70719696858581</v>
+        <v>41.42903257041521</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.70719701423716</v>
+        <v>71.28150695188413</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.70719702825159</v>
+        <v>79.7447348393959</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.70719684077124</v>
+        <v>8.262842022361948</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.70719687313555</v>
+        <v>29.06826766727568</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.70719688386143</v>
+        <v>33.48363605656314</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.70719683863173</v>
+        <v>10.21606416588359</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.70719687528141</v>
+        <v>27.85144187425192</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.70719688742751</v>
+        <v>32.0068049995161</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.70719684940192</v>
+        <v>17.7806697967275</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.7071968820673</v>
+        <v>35.57133989099206</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.70719689289296</v>
+        <v>39.82801550945369</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.70719689544043</v>
+        <v>37.53595285395109</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.70719691180278</v>
+        <v>43.93916165444106</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.70719691748782</v>
+        <v>47.10666364749451</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.70719687148138</v>
+        <v>20.47727224325573</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.707196910814</v>
+        <v>37.54471754965734</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.70719692365176</v>
+        <v>44.08799405547968</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.70719689241642</v>
+        <v>13.110509535034</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.70719692912501</v>
+        <v>37.19198237241927</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.70719694101762</v>
+        <v>43.51222340663027</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.70719688922811</v>
+        <v>10.72934756315673</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.70719693079729</v>
+        <v>31.10270940384229</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.7071969442646</v>
+        <v>37.02731236999729</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.70719690387732</v>
+        <v>20.19568469476467</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.70719694092738</v>
+        <v>41.14413953908833</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.70719695293062</v>
+        <v>47.22596841882788</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.70719695258216</v>
+        <v>45.26599789468676</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.70719697170983</v>
+        <v>54.44844522653351</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.70719697809486</v>
+        <v>59.38575921751509</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.70719692417024</v>
+        <v>23.75072351276634</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.70719696944104</v>
+        <v>47.47268392578881</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.70719698355303</v>
+        <v>55.16443364460459</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.70719693596281</v>
+        <v>19.94609776988036</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.70719697216067</v>
+        <v>46.10209040708756</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.7071969841687</v>
+        <v>54.00221795526707</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.7071969333898</v>
+        <v>17.75894446456631</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.70719697438063</v>
+        <v>40.30561310669359</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.70719698797864</v>
+        <v>47.64056431808083</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.70719694940919</v>
+        <v>30.39790722623078</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.70719698594377</v>
+        <v>53.34638448859456</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.70719699806351</v>
+        <v>60.96749861422194</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.70719699561808</v>
+        <v>60.73828337959333</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.70719701436838</v>
+        <v>71.13542749583912</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.70719702039446</v>
+        <v>76.85697557197416</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.70719696639338</v>
+        <v>35.6608828321906</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.70719701086006</v>
+        <v>62.240061450666</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.70719702512655</v>
+        <v>71.44520766562857</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.70719685027254</v>
+        <v>14.78143786917363</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.70719688280035</v>
+        <v>36.79516421287418</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.70719689347144</v>
+        <v>41.43756706524115</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.70719684862227</v>
+        <v>17.10219315069034</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.70719688545708</v>
+        <v>35.95605905606191</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.70719689754115</v>
+        <v>40.34693383623269</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.70719685969511</v>
+        <v>25.54426582841692</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.7071968925255</v>
+        <v>44.50210982471596</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.70719690329587</v>
+        <v>48.98915609459877</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.70719690516532</v>
+        <v>46.17773622061138</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.70719692156524</v>
+        <v>53.108027176932</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.7071969271893</v>
+        <v>56.26991190205765</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.70719688075983</v>
+        <v>27.68555132206649</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.70719692025482</v>
+        <v>45.86686573669101</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.70719693303895</v>
+        <v>52.66314098553369</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.70719690245246</v>
+        <v>22.0410134687527</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.70719693932283</v>
+        <v>47.41950010755028</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.70719695112706</v>
+        <v>53.87206319320872</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.70719689981405</v>
+        <v>20.08059065782424</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.70719694156643</v>
+        <v>41.76683059210728</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.70719695493366</v>
+        <v>47.82916707305883</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.70719691478716</v>
+        <v>30.61452995301161</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.70719695200052</v>
+        <v>52.81164209938059</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.70719696391455</v>
+        <v>59.02537779861845</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.70719696296879</v>
+        <v>56.83261875167831</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.70719698214051</v>
+        <v>66.55599707150417</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.70719698845073</v>
+        <v>71.47922098609112</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.70719693414305</v>
+        <v>33.91893924536249</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.70719697957918</v>
+        <v>58.91396837311783</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.70719694441694</v>
+        <v>27.12966091677108</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.70719698074562</v>
+        <v>54.47881112568659</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.70719699268324</v>
+        <v>62.57195869746118</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.70719694233769</v>
+        <v>25.33215294946869</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.70719698347666</v>
+        <v>49.08531578183624</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.70719699699494</v>
+        <v>56.61254706575885</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.70719695860753</v>
+        <v>38.974904729522</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.70719699527415</v>
+        <v>63.0718515547222</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.70719700732282</v>
+        <v>70.88639737914635</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.70719700433797</v>
+        <v>70.49885779766564</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.70719702312562</v>
+        <v>81.40603228097703</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.70719702909293</v>
+        <v>87.13124566888756</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.70719697475595</v>
+        <v>44.0974696019637</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.70719701935868</v>
+        <v>71.87408725067293</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.70719703355041</v>
+        <v>81.29391233672666</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.70719685511344</v>
+        <v>14.65361621951571</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.70719688656103</v>
+        <v>37.20237814414106</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.70719689648107</v>
+        <v>41.42683062701533</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.7071968536769</v>
+        <v>16.88262058249809</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.70719688928847</v>
+        <v>36.60485655890459</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.70719690052202</v>
+        <v>40.5177752693253</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.7071968643441</v>
+        <v>26.09454819056228</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.70719689608422</v>
+        <v>45.71022800191017</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.70719690609655</v>
+        <v>49.80242786395604</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.70719690722867</v>
+        <v>46.697743886485</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.707196922874</v>
+        <v>53.87350728051184</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.70719692799075</v>
+        <v>56.16667157320687</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.70719688327501</v>
+        <v>26.98187869748995</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.7071969214357</v>
+        <v>46.11210658253979</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.70719693336576</v>
+        <v>52.22023386342285</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.70719690482016</v>
+        <v>22.48500371929753</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.70719694048304</v>
+        <v>48.33163459031564</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.70719695143719</v>
+        <v>53.96772138315136</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.70719690250439</v>
+        <v>20.6662518290983</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.7071969428894</v>
+        <v>43.1639326853943</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.70719695529398</v>
+        <v>48.39066351387075</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.70719691702892</v>
+        <v>32.11740361310855</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.70719695302355</v>
+        <v>54.91065856730265</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.7071969640796</v>
+        <v>60.33501605439349</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.70719696271756</v>
+        <v>58.23445408039093</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.70719698098174</v>
+        <v>68.07105894392376</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.70719698672649</v>
+        <v>71.88039686880245</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.70719693457738</v>
+        <v>34.70801434016676</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.70719697847223</v>
+        <v>60.3836508217493</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.70719699154341</v>
+        <v>67.13753136892529</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.70719694494553</v>
+        <v>28.04291649623399</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.70719698008902</v>
+        <v>55.77230844063997</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.70719699114625</v>
+        <v>63.06285895521511</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.70719694320621</v>
+        <v>26.41673082803816</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.70719698300306</v>
+        <v>50.89805115772386</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.70719699552438</v>
+        <v>57.60055436400953</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.70719695900577</v>
+        <v>40.7993121693878</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.70719699447619</v>
+        <v>65.41106164989534</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.70719700563628</v>
+        <v>72.46505118929616</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.70719700245031</v>
+        <v>71.86918115792125</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.70719702031521</v>
+        <v>82.81356823237238</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.707197025761</v>
+        <v>87.27948220629207</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.70719697360381</v>
+        <v>45.02351309013602</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.70719701671098</v>
+        <v>73.3556575891392</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.70719702991354</v>
+        <v>81.69450554679004</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.70719684211722</v>
+        <v>4.95929199264549</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.70719687357133</v>
+        <v>25.39294609388384</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.70719688377603</v>
+        <v>29.57068239417463</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.70719684018715</v>
+        <v>7.192860979696281</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.7071968758061</v>
+        <v>24.71535302302082</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.70719688736201</v>
+        <v>28.54825779349461</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.70719685069683</v>
+        <v>15.07074323962111</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.70719688244354</v>
+        <v>32.60672428813279</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.70719689274317</v>
+        <v>36.66661054427729</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.7071968950989</v>
+        <v>35.20652231752211</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.70719691090965</v>
+        <v>41.52414820502093</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.70719691621613</v>
+        <v>43.9562032201906</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.70719687152129</v>
+        <v>17.6185775810054</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.70719690980972</v>
+        <v>34.68676611701039</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.70719692203201</v>
+        <v>40.87868883594375</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.70719689136452</v>
+        <v>11.73107671504798</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.70719692709622</v>
+        <v>35.51442601055637</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.70719693842173</v>
+        <v>41.49028600002914</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.70719688849361</v>
+        <v>9.765832560030312</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.70719692895655</v>
+        <v>30.09612076664025</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.70719694178167</v>
+        <v>35.63980718329577</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.7071969028428</v>
+        <v>19.80365988090993</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.70719693890689</v>
+        <v>40.58191859136176</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.70719695033776</v>
+        <v>46.36033327229354</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.70719694997523</v>
+        <v>44.86609610502712</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.70719696844616</v>
+        <v>53.89358168708493</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.70719697440249</v>
+        <v>57.83853962030841</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.70719692211187</v>
+        <v>23.12893615007419</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.70719696619865</v>
+        <v>46.70806368794208</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.70719697966734</v>
+        <v>53.92487569195617</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.70719693372414</v>
+        <v>19.61408580120235</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.70719696897882</v>
+        <v>45.46282830699214</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.7071969803553</v>
+        <v>52.95289003118548</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.70719693153354</v>
+        <v>17.91698580703265</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.70719697145628</v>
+        <v>40.42574298101355</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.70719698433912</v>
+        <v>47.3180198832307</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.70719694720496</v>
+        <v>31.02361880585836</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.70719698278758</v>
+        <v>53.79468903990529</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.70719699426989</v>
+        <v>61.05931168150016</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.70719699198563</v>
+        <v>61.06292039249269</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.70719701004038</v>
+        <v>71.21815806328667</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.70719701566524</v>
+        <v>75.88701806747137</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.70719696334335</v>
+        <v>35.88701498080573</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.70719700666498</v>
+        <v>62.28156443479926</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.70719702020228</v>
+        <v>70.94513183581891</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.70719684428686</v>
+        <v>2.570838374048694</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.70719687709295</v>
+        <v>24.0485841614158</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.70719688785117</v>
+        <v>28.71412096675412</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.70719684234587</v>
+        <v>4.591774762383395</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.70719687949583</v>
+        <v>22.89176123883929</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.70719689167855</v>
+        <v>27.28234509785775</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.70719685333782</v>
+        <v>12.27485563854615</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.7071968864491</v>
+        <v>30.71201127029855</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.70719689730739</v>
+        <v>35.22285689859994</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.7071968994334</v>
+        <v>32.93211633691269</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.70719691597424</v>
+        <v>39.76579282225242</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.70719692164526</v>
+        <v>42.90968103147993</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.7071968749177</v>
+        <v>14.95336927248436</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.70719691477059</v>
+        <v>32.74216183632717</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.70719692766087</v>
+        <v>39.49256738461843</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.70719689632334</v>
+        <v>6.782113456684918</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.70719693351302</v>
+        <v>31.52434642084321</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.70719694542207</v>
+        <v>38.04432932613231</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.70719689336845</v>
+        <v>4.448067615802898</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.70719693548243</v>
+        <v>25.46849644272795</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.70719694896835</v>
+        <v>31.57020064373288</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.70719690829894</v>
+        <v>14.07538127561595</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.70719694583457</v>
+        <v>35.65508354909186</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.7071969578544</v>
+        <v>41.94005487696501</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.70719695715716</v>
+        <v>40.26566279535309</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.70719697649388</v>
+        <v>49.89113039257995</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.70719698286508</v>
+        <v>54.84853049545619</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.70719692819147</v>
+        <v>17.96224796081114</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.70719697403407</v>
+        <v>42.43182950497486</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.70719698818194</v>
+        <v>50.25980386509541</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.70719693943101</v>
+        <v>13.22738871154115</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.70719697608656</v>
+        <v>40.00531246855012</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.70719698813574</v>
+        <v>48.19535120259825</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.70719693708722</v>
+        <v>11.12256496649844</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.70719697859634</v>
+        <v>34.27985692736901</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.70719699224096</v>
+        <v>41.8752197188473</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.70719695336541</v>
+        <v>23.91598913479076</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.70719699036195</v>
+        <v>47.45776810655737</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.70719700252322</v>
+        <v>55.37317354910002</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.70719699974641</v>
+        <v>55.37884568764181</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.70719701870132</v>
+        <v>66.22772711352572</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.70719702472976</v>
+        <v>71.99969497918393</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.70719696999421</v>
+        <v>29.5255958413921</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.70719701501163</v>
+        <v>56.84287976484985</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.70719702934211</v>
+        <v>66.26395666418404</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.70719686033414</v>
+        <v>20.6510649556208</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.70719689266281</v>
+        <v>44.28106078491149</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.70719690291113</v>
+        <v>48.97068272137149</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.707196859531</v>
+        <v>24.31651982704922</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.7071968961403</v>
+        <v>45.0748725400523</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.70719690774562</v>
+        <v>49.41134779322547</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.7071968707816</v>
+        <v>34.29909030033901</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.707196903411</v>
+        <v>54.88278230039199</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.70719691375466</v>
+        <v>59.44969181597607</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.70719691482639</v>
+        <v>56.46958544520956</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.70719693093281</v>
+        <v>63.96088627759515</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.70719693619243</v>
+        <v>66.34765866704709</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.7071968901044</v>
+        <v>36.24383036055949</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.70719692938574</v>
+        <v>56.47402606605971</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.70719694169398</v>
+        <v>63.33814087383993</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.70719690870019</v>
+        <v>20.61561052769461</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.707196945308</v>
+        <v>47.44931951142084</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.70719695661604</v>
+        <v>53.57806158706639</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.70719690685081</v>
+        <v>19.5622902252984</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.70719694830587</v>
+        <v>42.9900851741005</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.70719696111121</v>
+        <v>48.6606870940716</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.70719692196441</v>
+        <v>31.38328402072175</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.70719695891276</v>
+        <v>55.06004038313519</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.707196970326</v>
+        <v>60.98715435432966</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.70719696887749</v>
+        <v>58.93259147049091</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.70719698766173</v>
+        <v>69.07938117673029</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.70719699355271</v>
+        <v>73.00216274567214</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.70719693993143</v>
+        <v>34.8891689971118</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.7071969850269</v>
+        <v>61.61739194364046</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.70719699850771</v>
+        <v>69.0375357079142</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.70719694922588</v>
+        <v>26.86022138378124</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.70719698529415</v>
+        <v>55.62991025944071</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.70719699668275</v>
+        <v>63.44347649537698</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.70719694797987</v>
+        <v>26.1366130435097</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.70719698882395</v>
+        <v>51.60003136978822</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.70719700172052</v>
+        <v>58.79523020314967</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.7071969643491</v>
+        <v>41.00512535012386</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.7071970007529</v>
+        <v>66.5493874219549</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.70719701224744</v>
+        <v>74.13410771950662</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.70719700897132</v>
+        <v>73.64033615646136</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.70719702731655</v>
+        <v>84.92307226383836</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.70719703289583</v>
+        <v>89.53364333863352</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.70719697931319</v>
+        <v>46.11037446512951</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.70719702358488</v>
+        <v>75.55494559228909</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.70719703716695</v>
+        <v>84.59595233938229</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.70719683374368</v>
+        <v>1.830983930985671</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.70719686462754</v>
+        <v>21.99987382110776</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.70719687459953</v>
+        <v>25.98005634852624</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.70719683085406</v>
+        <v>3.120920981374766</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.70719686582727</v>
+        <v>20.31682049663087</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.70719687711965</v>
+        <v>23.94019142116347</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.70719684091821</v>
+        <v>10.78348359696553</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.70719687208938</v>
+        <v>28.12192556065383</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.70719688215413</v>
+        <v>31.98855079017245</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.70719688458701</v>
+        <v>30.27704575404566</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.70719690003536</v>
+        <v>36.57580183486412</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.70719690525319</v>
+        <v>38.90954777416925</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.70719686151855</v>
+        <v>12.33166912072623</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.70719689918301</v>
+        <v>29.71910786038295</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.70719691114484</v>
+        <v>35.48195157460937</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.70719688100878</v>
+        <v>6.530615526832907</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.70719691604428</v>
+        <v>29.84791796745712</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.70719692714817</v>
+        <v>35.67519595726624</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.70719687728847</v>
+        <v>3.811389931515588</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.70719691696303</v>
+        <v>23.61704358166542</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.70719692953719</v>
+        <v>28.98129246869738</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.70719689109126</v>
+        <v>13.44444557726957</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.70719692645268</v>
+        <v>33.83171886922146</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.70719693765986</v>
+        <v>39.46962930243181</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.70719693745441</v>
+        <v>37.78042892305377</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.70719695547806</v>
+        <v>46.70660818360741</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.70719696136954</v>
+        <v>50.61695179348671</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.70719691022236</v>
+        <v>15.93510697770263</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.70719695348747</v>
+        <v>39.49059504770523</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.70719696673109</v>
+        <v>46.40534430568445</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.7071969236296</v>
+        <v>14.34801258431399</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.70719695822166</v>
+        <v>39.7364464010369</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.70719696938703</v>
+        <v>47.04062006004123</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.70719692063386</v>
+        <v>11.76635907866898</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.70719695980626</v>
+        <v>33.78284045662399</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.70719697245005</v>
+        <v>40.43935196463259</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.70719693578009</v>
+        <v>24.41342031444593</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.70719697069395</v>
+        <v>46.79712686616025</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.70719698196318</v>
+        <v>53.88498744456556</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.70719697985528</v>
+        <v>53.57695646698735</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.70719699748872</v>
+        <v>63.67835711817405</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.7071970030539</v>
+        <v>68.37250011357783</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.70719695181052</v>
+        <v>28.53566659986206</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.70719699436111</v>
+        <v>54.88972521494894</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.70719700767744</v>
+        <v>63.20751565852218</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.70719684045487</v>
+        <v>8.268064452967955</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.7071968723794</v>
+        <v>30.51441382266718</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.70719688244209</v>
+        <v>34.31295579691893</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.70719683777646</v>
+        <v>9.364355897321772</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.70719687392813</v>
+        <v>28.65125532861002</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.70719688532322</v>
+        <v>32.03433405601503</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.70719684831407</v>
+        <v>18.30541905180115</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.70719688053557</v>
+        <v>37.57527930690306</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.70719689069187</v>
+        <v>41.24690915142828</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.70719689241654</v>
+        <v>39.04776722908675</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.70719690827061</v>
+        <v>46.12681347095005</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.70719691350415</v>
+        <v>48.21306431852913</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.70719686838811</v>
+        <v>19.38945630695594</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.70719690722504</v>
+        <v>38.71916316803691</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.70719691933786</v>
+        <v>44.14716389553959</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.70719689043499</v>
+        <v>16.3227928758875</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.70719692662705</v>
+        <v>41.89889139797342</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.70719693779607</v>
+        <v>47.2630895974437</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.70719688697061</v>
+        <v>13.67121987608406</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.70719692795485</v>
+        <v>35.75939141216421</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.70719694060277</v>
+        <v>40.60416712209749</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.70719690142625</v>
+        <v>24.83603979860733</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.70719693795498</v>
+        <v>47.3135447419148</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.7071969492279</v>
+        <v>52.47603699226056</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.70719694836471</v>
+        <v>50.96418919684596</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.70719696685741</v>
+        <v>60.74842074632863</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.7071969727537</v>
+        <v>64.39804982568992</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.70719692005827</v>
+        <v>27.35828304439706</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.70719696466519</v>
+        <v>53.18416285383906</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.70719697802407</v>
+        <v>59.43951773381005</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.707196933473</v>
+        <v>23.74683288355783</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.7071969691876</v>
+        <v>51.3950289120051</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.7071969804339</v>
+        <v>58.41053327450904</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.7071969306714</v>
+        <v>21.10563530114505</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.70719697111497</v>
+        <v>45.40892570506109</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.7071969838504</v>
+        <v>51.69981104801117</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.70719694653155</v>
+        <v>35.37483193643961</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.70719698257838</v>
+        <v>59.84797501597306</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.70719699392929</v>
+        <v>66.63990818902491</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.70719699116868</v>
+        <v>66.51595119317412</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.70719700926362</v>
+        <v>77.52855060877204</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.70719701483797</v>
+        <v>81.90212662333046</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.70719696205417</v>
+        <v>39.51995816396432</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.70719700591704</v>
+        <v>68.18683089042824</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.70719701936896</v>
+        <v>76.00760738805997</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.70719683256167</v>
+        <v>3.644408778732078</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.70719686410521</v>
+        <v>24.31696799098416</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.70719687421284</v>
+        <v>28.09326260377328</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.70719682968129</v>
+        <v>4.573791061776205</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.70719686540151</v>
+        <v>22.29354607761524</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.7071968768475</v>
+        <v>25.65154890324794</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.70719683992863</v>
+        <v>12.756468994458</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.7071968717656</v>
+        <v>30.49401891877111</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.70719688196726</v>
+        <v>34.14683125616187</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.70719688441947</v>
+        <v>32.30957750622621</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.70719690016343</v>
+        <v>38.73444820952043</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.70719690543492</v>
+        <v>40.85399507299434</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.70719686099286</v>
+        <v>14.30019706751176</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.70719689941682</v>
+        <v>32.08617698752413</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.70719691156032</v>
+        <v>37.49972987639179</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.70719688033807</v>
+        <v>4.106684568680681</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.70719691610027</v>
+        <v>27.8566095269792</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.70719692734978</v>
+        <v>33.36409376868257</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.70719687651838</v>
+        <v>0.9189977088457688</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.70719691701587</v>
+        <v>21.17554327564799</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.70719692975493</v>
+        <v>26.16990051543908</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.70719689058977</v>
+        <v>10.85961272696631</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.70719692668465</v>
+        <v>31.56790949354617</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.7071969380388</v>
+        <v>36.88150777867663</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.70719693787201</v>
+        <v>35.51943155965883</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.70719695622769</v>
+        <v>44.59703649496366</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.70719696216427</v>
+        <v>48.23972406089332</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.70719691022196</v>
+        <v>13.70682945511728</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.70719695434687</v>
+        <v>37.66730113814916</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.70719696778038</v>
+        <v>44.0566094561795</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.70719692485934</v>
+        <v>14.2575571735577</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.7071969601913</v>
+        <v>40.22313007203179</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.7071969714754</v>
+        <v>47.27978959885777</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.70719692178588</v>
+        <v>11.20785659193522</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.70719696179615</v>
+        <v>33.81851906007765</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.70719697457438</v>
+        <v>40.17422162241638</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.70719693732823</v>
+        <v>24.37710173016417</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.70719697298886</v>
+        <v>47.22046822860612</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.70719698437793</v>
+        <v>54.06095635092196</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.70719698228508</v>
+        <v>54.0104638357023</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.70719700023466</v>
+        <v>64.313717045736</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.70719700583049</v>
+        <v>68.63566202598912</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.70719695376078</v>
+        <v>28.67719564616364</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.70719699718588</v>
+        <v>55.58064266634591</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.70719701066195</v>
+        <v>63.43634965435753</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.70719682736329</v>
+        <v>-3.482859874928476</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.70719685752821</v>
+        <v>15.92724357887638</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.70719686719393</v>
+        <v>19.24805322994795</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.70719682391696</v>
+        <v>-3.292479530206013</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.70719685807602</v>
+        <v>13.24414008859674</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.70719686902158</v>
+        <v>16.14333102682955</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.70719683340642</v>
+        <v>3.898781919117379</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.70719686385194</v>
+        <v>20.50019676164104</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.70719687360758</v>
+        <v>23.69426076382349</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.70719687629648</v>
+        <v>22.17946117912043</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.70719689134695</v>
+        <v>28.18981731245123</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.70719689641309</v>
+        <v>30.15116487308104</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.70719685409991</v>
+        <v>5.415673786427995</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.70719689083855</v>
+        <v>22.03899337092945</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.70719690245894</v>
+        <v>26.84208449502436</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.70719687401922</v>
+        <v>-0.6542024475941481</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.70719690824414</v>
+        <v>21.71518025981253</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.70719691901556</v>
+        <v>26.70606386549566</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.70719686972781</v>
+        <v>-4.158316915312451</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.70719690848445</v>
+        <v>14.81158994481871</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.70719692068212</v>
+        <v>19.28691023683447</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.70719688291737</v>
+        <v>4.850522487298839</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.70719691746065</v>
+        <v>24.30510695484222</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.70719692833228</v>
+        <v>29.10291598449255</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.70719692847607</v>
+        <v>28.06887985751524</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.70719694603059</v>
+        <v>36.64410559527599</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.70719695174925</v>
+        <v>40.11843221409721</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.70719690219003</v>
+        <v>7.610141585497701</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.70719694441287</v>
+        <v>30.16396390953616</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.70719695728441</v>
+        <v>35.93636468878807</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.70719691783178</v>
+        <v>9.768854573948467</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.70719695165641</v>
+        <v>34.32790739197939</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.70719696248048</v>
+        <v>40.82009397350015</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.70719691427627</v>
+        <v>6.319207944516943</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.70719695257962</v>
+        <v>27.61817688994214</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.70719696483691</v>
+        <v>33.40707967965351</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.70719692894214</v>
+        <v>18.47183836971173</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.70719696308141</v>
+        <v>40.03617857842099</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.70719697400617</v>
+        <v>46.31383464804453</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.70719697224627</v>
+        <v>46.4671110793446</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.70719698943278</v>
+        <v>56.27086666330684</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.70719699482687</v>
+        <v>60.40317816094931</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.70719694509009</v>
+        <v>22.59038103123267</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.70719698665908</v>
+        <v>48.03960567941367</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.70719699959713</v>
+        <v>55.230090552738</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.70719684230005</v>
+        <v>10.56951184606029</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.7071968753051</v>
+        <v>31.96698558492164</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.70719688621855</v>
+        <v>36.56786319658237</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.70719684024056</v>
+        <v>12.28648007683773</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.70719687761582</v>
+        <v>30.46816732017743</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.70719688997432</v>
+        <v>34.79212544648703</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.70719685141338</v>
+        <v>20.48729704596544</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.70719688472547</v>
+        <v>38.82619072308867</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.70719689574043</v>
+        <v>43.28233562697912</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.70719689818278</v>
+        <v>40.88702416165656</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.70719691484956</v>
+        <v>47.48342490304141</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.70719692061132</v>
+        <v>50.68020495856668</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.70719687360963</v>
+        <v>23.10095012725912</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.70719691375171</v>
+        <v>40.79717954842215</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.70719692680894</v>
+        <v>47.57352255029093</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.70719689391409</v>
+        <v>12.60767901449658</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.70719693133318</v>
+        <v>37.28058058344349</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.70719694342593</v>
+        <v>43.76294050498407</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.70719689075927</v>
+        <v>9.679975807030143</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.70719693313302</v>
+        <v>30.58740836703496</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.70719694682697</v>
+        <v>36.6608396788649</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.70719690585777</v>
+        <v>19.70962322934027</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.70719694362494</v>
+        <v>41.21066543019542</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.70719695583019</v>
+        <v>47.46667116920037</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.70719695537312</v>
+        <v>45.45480840929287</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.7071969748493</v>
+        <v>54.82293993994597</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.70719698130979</v>
+        <v>59.75115152833126</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.70719692631187</v>
+        <v>23.30393721635408</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.70719697247767</v>
+        <v>47.66169064147898</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.70719698682778</v>
+        <v>55.55975316530957</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.70719693784453</v>
+        <v>19.87776445712272</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.70719697474221</v>
+        <v>46.63465515681831</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.70719698694048</v>
+        <v>54.72991597289008</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.70719693533341</v>
+        <v>17.22110103518601</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.70719697711672</v>
+        <v>40.31686736599476</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.70719699093017</v>
+        <v>47.83409982822737</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.70719695179006</v>
+        <v>30.47839703962176</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.70719698903099</v>
+        <v>53.98791380998699</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.70719700134273</v>
+        <v>61.81568506966055</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.70719699877794</v>
+        <v>61.55980984225452</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.70719701785558</v>
+        <v>72.12929380018129</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.70719702395431</v>
+        <v>77.87337065089891</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.7071969688954</v>
+        <v>35.79513779493664</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.70719701423743</v>
+        <v>63.02565825494037</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.70719702872675</v>
+        <v>72.46516688546879</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.70719684034018</v>
+        <v>14.77231367036364</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.70719687197004</v>
+        <v>36.72351544350727</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.7071968820476</v>
+        <v>40.81782233251012</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.70719683774496</v>
+        <v>16.45134447450573</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.70719687356293</v>
+        <v>35.43524773991895</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.70719688497486</v>
+        <v>39.13138212924469</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.70719684823608</v>
+        <v>25.5002220866333</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.70719688016016</v>
+        <v>44.50543070320767</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.70719689033147</v>
+        <v>48.47322742657353</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.70719689221076</v>
+        <v>46.13524149338663</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.70719690795702</v>
+        <v>53.09848835967493</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.70719691320745</v>
+        <v>55.25714174395351</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.70719686845195</v>
+        <v>26.72476870312414</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.70719690699455</v>
+        <v>46.01841032930884</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.70719691910563</v>
+        <v>51.84190833386367</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.70719688751869</v>
+        <v>15.15190927800958</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.70719692332503</v>
+        <v>40.18519322854723</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.70719693452695</v>
+        <v>45.97026935748806</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.70719688404303</v>
+        <v>12.72794764644133</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.70719692459048</v>
+        <v>34.26070153843055</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.70719693727566</v>
+        <v>39.53518222632749</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.7071968983156</v>
+        <v>23.52675102393594</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.70719693445501</v>
+        <v>45.51006417607411</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.70719694576115</v>
+        <v>51.0935941591702</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.70719694507716</v>
+        <v>49.32233708079796</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.7071969634177</v>
+        <v>58.87866061102417</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.70719696934064</v>
+        <v>62.62175344423875</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.7071969171437</v>
+        <v>26.13329897247299</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.70719696132697</v>
+        <v>51.60956668958379</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.70719697470983</v>
+        <v>58.37945053257214</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.70719693035373</v>
+        <v>22.03051128130145</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.70719696569632</v>
+        <v>49.16724516591981</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.70719697696442</v>
+        <v>56.50832186352464</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.70719692757208</v>
+        <v>19.66530188441622</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.70719696759438</v>
+        <v>43.44515774273954</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.70719698035449</v>
+        <v>50.08814932777301</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.70719694322374</v>
+        <v>33.49935936292445</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.7071969788951</v>
+        <v>57.51080251542916</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.70719699026802</v>
+        <v>64.62365708643418</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.70719698769779</v>
+        <v>64.26978130927482</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.70719700563618</v>
+        <v>75.06795841846873</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.70719701123075</v>
+        <v>79.55338189281393</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.70719695894612</v>
+        <v>37.76237714092837</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.70719700239686</v>
+        <v>66.08294006728396</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.70719701585714</v>
+        <v>74.31596003077044</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.70719685301804</v>
+        <v>17.27028074329945</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.70719688656482</v>
+        <v>40.43078463384547</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.70719689755003</v>
+        <v>45.42791657093811</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.70719685172704</v>
+        <v>20.26457418290552</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.70719688971575</v>
+        <v>40.21881524235226</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.70719690215551</v>
+        <v>44.95619568595917</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.70719686330934</v>
+        <v>29.37740814301618</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.70719689716818</v>
+        <v>49.38437307534961</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.70719690825558</v>
+        <v>54.22887945451273</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.70719690996636</v>
+        <v>51.2142140034003</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.70719692685846</v>
+        <v>58.47961693619085</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.70719693261859</v>
+        <v>61.688755427727</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.70719688467574</v>
+        <v>31.8199854974774</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.70719692543288</v>
+        <v>51.1961166713706</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.70719693859008</v>
+        <v>58.53563677914772</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.70719690515344</v>
+        <v>20.18524279682706</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.70719694314529</v>
+        <v>46.72301148907522</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.70719695528687</v>
+        <v>53.50957557094209</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.70719690275408</v>
+        <v>18.48987698017104</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.70719694577645</v>
+        <v>41.27463522915798</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.70719695952568</v>
+        <v>47.65667967641576</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.7071969183096</v>
+        <v>29.49705958180258</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.70719695665487</v>
+        <v>52.76123887188477</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.70719696890939</v>
+        <v>59.3096078203257</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.7071969677781</v>
+        <v>56.9910029361594</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.70719698751005</v>
+        <v>67.0853508171554</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.70719699396363</v>
+        <v>72.08415590719858</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.70719693798762</v>
+        <v>33.16117043862185</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.70719698482118</v>
+        <v>59.43439024025164</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.70719699923852</v>
+        <v>67.73486734089786</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.70719694780162</v>
+        <v>25.66314404086038</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.70719698522971</v>
+        <v>54.20977940424621</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.70719699749328</v>
+        <v>62.680047973192</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.70719694598252</v>
+        <v>24.24153780620681</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.70719698836647</v>
+        <v>49.1291670966777</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.70719700225386</v>
+        <v>57.03315692085636</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.70719696284015</v>
+        <v>38.41911978924029</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.70719700061641</v>
+        <v>63.62079191983689</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.70719701299407</v>
+        <v>71.81094729363357</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.70719700980719</v>
+        <v>71.33974752403817</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.70719702912484</v>
+        <v>82.64286985889731</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.7071970352271</v>
+        <v>88.4419140151205</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.70719697925018</v>
+        <v>43.90799078337328</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.70719702521659</v>
+        <v>73.00495645754056</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.7071970397936</v>
+        <v>82.927740652605</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.7071968507916</v>
+        <v>15.34599136460266</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.7071968826896</v>
+        <v>36.4965657260289</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.70719689325657</v>
+        <v>41.22849827223733</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.70719684931006</v>
+        <v>18.16410719841</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.70719688543167</v>
+        <v>36.16078646676717</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.70719689739781</v>
+        <v>40.66746547416425</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.70719686012481</v>
+        <v>25.94198301788676</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.70719689231954</v>
+        <v>44.08869778870118</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.7071969029848</v>
+        <v>48.66362561184117</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.70719690502775</v>
+        <v>45.93368156011957</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.70719692115836</v>
+        <v>52.46246645001824</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.70719692674116</v>
+        <v>55.76841660890896</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.70719688119942</v>
+        <v>28.30198830565388</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.70719691994522</v>
+        <v>45.67591630409444</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.7071969325976</v>
+        <v>52.63868253181824</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.70719690167569</v>
+        <v>19.69429967021238</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.70719693782098</v>
+        <v>44.08477251545037</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.70719694952015</v>
+        <v>50.67010798136766</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.70719689918094</v>
+        <v>18.23820543873288</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.70719694011223</v>
+        <v>38.94437451890035</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.70719695336049</v>
+        <v>45.16927174203563</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.70719691377894</v>
+        <v>27.79682118765794</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.70719695026046</v>
+        <v>49.06821895920991</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.70719696206847</v>
+        <v>55.41385406234194</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.70719696128729</v>
+        <v>53.12568561250628</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.70719698014046</v>
+        <v>62.38391197476948</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.70719698640293</v>
+        <v>67.43519631608042</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.70719693310419</v>
+        <v>31.09525450247484</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.70719697766842</v>
+        <v>55.09338585363932</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.70719699154953</v>
+        <v>63.14798984654736</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.70719694316219</v>
+        <v>24.97049303607768</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.70719697878256</v>
+        <v>51.32652543506354</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.70719699060099</v>
+        <v>59.46067693096754</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.70719694121016</v>
+        <v>23.71582093331846</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.70719698154702</v>
+        <v>46.48121143106864</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.70719699493034</v>
+        <v>54.08666947356826</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.70719695709054</v>
+        <v>36.36576736013156</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.70719699304226</v>
+        <v>59.5327689090029</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.70719700497063</v>
+        <v>67.38511509163827</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.70719700216374</v>
+        <v>66.9358565337885</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.70719702063775</v>
+        <v>77.38291626094522</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.70719702655218</v>
+        <v>83.21772764485385</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.70719697322275</v>
+        <v>41.44747192825643</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.70719701697137</v>
+        <v>68.19616614134699</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.7071970310113</v>
+        <v>77.73629013639311</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.70719684290352</v>
+        <v>12.52521642694722</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.70719687634748</v>
+        <v>35.70395126729338</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.70719688704353</v>
+        <v>40.20777616091888</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.70719684062467</v>
+        <v>14.46979974758104</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.70719687849695</v>
+        <v>34.49475018491535</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.70719689060926</v>
+        <v>38.59748959626106</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.70719685196903</v>
+        <v>23.88125293624298</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.70719688572411</v>
+        <v>43.96931283843826</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.70719689651965</v>
+        <v>48.35053796167723</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.70719689831793</v>
+        <v>45.76527182702564</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.70719691498623</v>
+        <v>53.05932724621215</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.70719692057634</v>
+        <v>55.68881981888615</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.70719687304071</v>
+        <v>25.23490647126174</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.70719691376687</v>
+        <v>45.39814332586576</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.70719692661634</v>
+        <v>51.81981546276049</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.7071968932099</v>
+        <v>14.1760768031158</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.70719693107317</v>
+        <v>40.6302223598792</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.70719694292167</v>
+        <v>46.84492287301799</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.7071968899862</v>
+        <v>11.61272493511615</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.70719693286295</v>
+        <v>34.35589388541008</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.70719694628032</v>
+        <v>40.04152522998665</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.70719690530522</v>
+        <v>22.88602954786525</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.7071969435207</v>
+        <v>46.13875852312398</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.70719695547943</v>
+        <v>52.15016944272286</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.70719695455714</v>
+        <v>50.108721361706</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.70719697399417</v>
+        <v>60.12623445620844</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.70719698028633</v>
+        <v>64.42839559401126</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.70719692485412</v>
+        <v>25.55326184076486</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.70719697155891</v>
+        <v>52.28204265743148</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.70719698570676</v>
+        <v>59.64022014682438</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.70719693709004</v>
+        <v>20.39852484351067</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.70719697443128</v>
+        <v>48.89882395657393</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.70719698637679</v>
+        <v>56.78106255577862</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.70719693455153</v>
+        <v>17.91903409064686</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.70719697683713</v>
+        <v>42.84652666663726</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.70719699036435</v>
+        <v>50.01005805372181</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.70719695123403</v>
+        <v>32.34238470837243</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.70719698892264</v>
+        <v>57.56464329489718</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.70719700097927</v>
+        <v>65.21087441479442</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.70719699805763</v>
+        <v>64.78626231610161</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.70719701707914</v>
+        <v>76.07416675307267</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.70719702302593</v>
+        <v>81.19332264482215</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.70719696754175</v>
+        <v>36.84836054813272</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.70719701343627</v>
+        <v>66.41797634354452</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.70719702769714</v>
+        <v>75.36090168268224</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.70719684253143</v>
+        <v>7.454602860655609</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.70719687353296</v>
+        <v>27.58151383900943</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.70719688371612</v>
+        <v>31.77502183446726</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.70719684046794</v>
+        <v>9.042594749719346</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.70719687557438</v>
+        <v>26.16621233776827</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.7071968871059</v>
+        <v>30.04314187568086</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.70719685083892</v>
+        <v>16.71368208891458</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.70719688212884</v>
+        <v>33.95267352617194</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.70719689240673</v>
+        <v>38.01259178852654</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.70719689486929</v>
+        <v>35.91249237026923</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.70719691050821</v>
+        <v>42.15603625304612</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.70719691591606</v>
+        <v>45.0554742383288</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.70719687178885</v>
+        <v>18.74526654245746</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.70719690951521</v>
+        <v>35.40116935484091</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.70719692170614</v>
+        <v>41.6358302092877</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.70719689157211</v>
+        <v>12.72912165499</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.70719692676169</v>
+        <v>36.14485113296649</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.70719693807438</v>
+        <v>42.28271504805953</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.70719688857192</v>
+        <v>10.24009775185248</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.70719692842096</v>
+        <v>30.123114700353</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.70719694123155</v>
+        <v>35.83380126555208</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.70719690265983</v>
+        <v>19.80626356132077</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.70719693817676</v>
+        <v>40.22001608835402</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.70719694959468</v>
+        <v>46.1463680373603</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.70719694929253</v>
+        <v>44.07571253220344</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.70719696758346</v>
+        <v>52.99774558265693</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.70719697364171</v>
+        <v>57.58041279246422</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.70719692195784</v>
+        <v>22.68781590991023</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.70719696538785</v>
+        <v>45.85949337458521</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.70719697882042</v>
+        <v>53.37062621391816</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.7071969330926</v>
+        <v>18.95453350217765</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.70719696779848</v>
+        <v>44.34734835630108</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.7071969792036</v>
+        <v>52.01910191505358</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.70719693068264</v>
+        <v>16.63253692545664</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.70719696998393</v>
+        <v>38.59915790252499</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.70719698289919</v>
+        <v>45.67700943379579</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.70719694604352</v>
+        <v>29.13704670048084</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.70719698107224</v>
+        <v>51.45996179405569</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.70719699258346</v>
+        <v>58.8818259770344</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.70719699027324</v>
+        <v>58.36513651488137</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.70719700819179</v>
+        <v>68.41845072887327</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.70719701390866</v>
+        <v>73.83132311063459</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.70719696216759</v>
+        <v>33.66892571800707</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.70719700482584</v>
+        <v>59.54033674959031</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.7071970183819</v>
+        <v>68.54465577056276</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.70719684877938</v>
+        <v>11.74875386562534</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.70719688047904</v>
+        <v>32.56529866785587</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.70719689101919</v>
+        <v>37.31892664562019</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.70719684720025</v>
+        <v>14.31152910758677</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.70719688309727</v>
+        <v>31.97333788076591</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.70719689503304</v>
+        <v>36.50897001169241</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.70719685791326</v>
+        <v>21.89314739591774</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.7071968899078</v>
+        <v>39.72563200608947</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.707196900546</v>
+        <v>44.32150408489983</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.70719690276524</v>
+        <v>41.86197332045834</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.70719691882056</v>
+        <v>48.29419764840357</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.70719692439544</v>
+        <v>51.638043400605</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.70719687913999</v>
+        <v>24.57015548739075</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.70719691766487</v>
+        <v>41.64785179077121</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.70719693027556</v>
+        <v>48.62601106910897</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.7071968992607</v>
+        <v>15.69452917573609</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.70719693519038</v>
+        <v>39.74173150905172</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.70719694687217</v>
+        <v>46.41044959559545</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.70719689666631</v>
+        <v>13.95978033323231</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.70719693735344</v>
+        <v>34.32607391869396</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.70719695058203</v>
+        <v>40.64385627545452</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.70719691113696</v>
+        <v>23.30670893633165</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.70719694740087</v>
+        <v>44.2556001713332</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.70719695919134</v>
+        <v>50.68346182658972</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.70719695857484</v>
+        <v>48.56016075013913</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.70719697734209</v>
+        <v>57.72153542580971</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.7071969835991</v>
+        <v>62.81725956580921</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.70719693061185</v>
+        <v>26.86595813665107</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.70719697492901</v>
+        <v>50.54321316943023</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.70719698878013</v>
+        <v>58.68076890045778</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.70719694077683</v>
+        <v>21.14208209645403</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.70719697618939</v>
+        <v>47.15702075537983</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.70719698798541</v>
+        <v>55.3576627145011</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.70719693873325</v>
+        <v>19.60502836833016</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.70719697883479</v>
+        <v>42.03293508824631</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.70719699219272</v>
+        <v>49.71667627491414</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.70719695448443</v>
+        <v>32.04311955729774</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.70719699022642</v>
+        <v>54.88940011008546</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.70719700213216</v>
+        <v>62.80656031846014</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.70719699948607</v>
+        <v>62.51591190798187</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.70719701787488</v>
+        <v>72.85095333370535</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.7071970237817</v>
+        <v>78.73333226726764</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.70719697075945</v>
+        <v>37.36852832436179</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.70719701426788</v>
+        <v>63.79056697553706</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.70719702827217</v>
+        <v>73.40196807679884</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.7071968535782</v>
+        <v>18.54948862504233</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.70719688556827</v>
+        <v>40.25061942023147</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.70719689593689</v>
+        <v>44.80930168678992</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.70719685231817</v>
+        <v>21.24623730068023</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.70719688854404</v>
+        <v>39.98442807876594</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.70719690028558</v>
+        <v>44.23448297094193</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.70719686327135</v>
+        <v>30.1372479963843</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.707196895559</v>
+        <v>48.83977517876603</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.70719690602407</v>
+        <v>53.26569259266602</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.70719690777476</v>
+        <v>50.37628227969012</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.70719692381891</v>
+        <v>56.99862691573973</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.70719692922066</v>
+        <v>59.7645567257708</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.70719688365532</v>
+        <v>32.00374611019478</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.707196922529</v>
+        <v>50.13332714371381</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.7071969349733</v>
+        <v>56.86592723330469</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.70719690276593</v>
+        <v>20.12703230173722</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.70719693901363</v>
+        <v>44.98669059319698</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.70719695048719</v>
+        <v>51.17553333087272</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.70719690045498</v>
+        <v>18.24156714476782</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.70719694150224</v>
+        <v>39.59108783683384</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.70719695449502</v>
+        <v>45.36095418993868</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.70719691522622</v>
+        <v>28.94955140137353</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.70719695181111</v>
+        <v>50.7057863166668</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>26.70719696339141</v>
+        <v>56.68641787062547</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.7071969624495</v>
+        <v>54.44815997121076</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.70719698118119</v>
+        <v>63.67920305080445</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.70719698723494</v>
+        <v>67.99475244698667</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.70719693403207</v>
+        <v>31.96174331474606</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.70719697871017</v>
+        <v>56.52926040886204</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.70719699236983</v>
+        <v>64.03655569527692</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.70719694413025</v>
+        <v>25.78508977102192</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.70719697986376</v>
+        <v>52.6250279560895</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.70719699141844</v>
+        <v>60.36313162653357</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.70719694241054</v>
+        <v>24.13555746907518</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.70719698287552</v>
+        <v>47.56702403983653</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.70719699596015</v>
+        <v>54.7187319481937</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.70719695846217</v>
+        <v>37.92068462100055</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.70719699452808</v>
+        <v>61.58797832647933</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26.70719700619025</v>
+        <v>69.08460846551154</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.70719700331872</v>
+        <v>68.50956051144172</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.70719702164183</v>
+        <v>78.92083332480435</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.70719702736271</v>
+        <v>83.97363322512066</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.70719697415706</v>
+        <v>42.58600765640381</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.70719701803162</v>
+        <v>69.89470799543736</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.70719703179562</v>
+        <v>78.89099446161222</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>26.70719684534888</v>
+        <v>13.11738134902585</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.70719687870117</v>
+        <v>36.27244064487881</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.70719688937834</v>
+        <v>40.80903603103085</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.70719684335756</v>
+        <v>15.24853966139667</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.70719688112603</v>
+        <v>35.26382158864408</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.70719689321697</v>
+        <v>39.41697734774307</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.70719685469137</v>
+        <v>24.57598652264176</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.70719688835391</v>
+        <v>44.64954361643731</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.70719689913041</v>
+        <v>49.06206311418146</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.70719690091899</v>
+        <v>46.44563559898705</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.70719691756784</v>
+        <v>53.7162323980791</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.70719692313994</v>
+        <v>56.43068014011507</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.70719687568727</v>
+        <v>26.00100453885653</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.70719691629514</v>
+        <v>46.11511500723635</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.70719692911562</v>
+        <v>52.56851521990014</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.70719689567227</v>
+        <v>14.99185092753206</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.70719693342697</v>
+        <v>41.42224311471023</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.70719694525354</v>
+        <v>47.68595766078897</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.70719689271877</v>
+        <v>12.63852684678082</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.70719693547258</v>
+        <v>35.37739062392275</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.7071969488651</v>
+        <v>41.12876833377462</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.70719690801164</v>
+        <v>23.80278024351258</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.70719694611755</v>
+        <v>47.03831592560394</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.70719695805414</v>
+        <v>53.09960704406124</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.70719695712617</v>
+        <v>51.00797426134653</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.70719697654914</v>
+        <v>60.99168868707461</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.70719698281411</v>
+        <v>65.38782507901549</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.70719692748254</v>
+        <v>26.54814717686642</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.70719697406007</v>
+        <v>53.26973977256907</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.70719698816421</v>
+        <v>60.64097956422933</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.70719693891811</v>
+        <v>20.55827570054898</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.70719697613672</v>
+        <v>48.96924674196609</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.70719698806701</v>
+        <v>56.93794654798438</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.7071969366122</v>
+        <v>18.25799178470988</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.70719697875893</v>
+        <v>43.11154785302317</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.70719699226891</v>
+        <v>50.37591156448143</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.70719695323348</v>
+        <v>32.54463111600108</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>26.70719699079832</v>
+        <v>57.68595156396916</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.70719700283958</v>
+        <v>65.41895695367538</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.70719699992233</v>
+        <v>64.91834002397886</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.70719701892331</v>
+        <v>76.15470072430166</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.70719702484993</v>
+        <v>81.39050863845665</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>26.7071969694866</v>
+        <v>37.11862540009452</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.70719701523457</v>
+        <v>66.59971425289432</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.70719702946434</v>
+        <v>75.6088033537449</v>
       </c>
     </row>
   </sheetData>
